--- a/data/negative_signals/Indirectly connected (A-X-B) - Tamsulosin - Neutropenia.xlsx
+++ b/data/negative_signals/Indirectly connected (A-X-B) - Tamsulosin - Neutropenia.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="712">
   <si>
     <t>pathWeight</t>
   </si>
@@ -173,733 +173,1453 @@
     <t>Chemicals &amp; Drugs</t>
   </si>
   <si>
+    <t>4877776</t>
+  </si>
+  <si>
+    <t>rattus norvegicus</t>
+  </si>
+  <si>
+    <t>Living Beings</t>
+  </si>
+  <si>
+    <t>2617463</t>
+  </si>
+  <si>
+    <t>neutropenia</t>
+  </si>
+  <si>
+    <t>Disorders</t>
+  </si>
+  <si>
+    <t>58929289</t>
+  </si>
+  <si>
+    <t>treats</t>
+  </si>
+  <si>
+    <t>68591436</t>
+  </si>
+  <si>
+    <t>is administered to</t>
+  </si>
+  <si>
+    <t>52012320</t>
+  </si>
+  <si>
+    <t>is process of</t>
+  </si>
+  <si>
+    <t>816241</t>
+  </si>
+  <si>
+    <t>canis familiaris</t>
+  </si>
+  <si>
+    <t>55106772</t>
+  </si>
+  <si>
+    <t>5929776</t>
+  </si>
+  <si>
+    <t>inhibits</t>
+  </si>
+  <si>
+    <t>8083142</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>51631798</t>
+  </si>
+  <si>
+    <t>97206353</t>
+  </si>
+  <si>
+    <t>is not process of</t>
+  </si>
+  <si>
+    <t>5308239</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>61268171</t>
+  </si>
+  <si>
+    <t>55000515</t>
+  </si>
+  <si>
+    <t>occurs in</t>
+  </si>
+  <si>
+    <t>51482599</t>
+  </si>
+  <si>
+    <t>760841</t>
+  </si>
+  <si>
+    <t>domestic rabbit</t>
+  </si>
+  <si>
+    <t>67811880</t>
+  </si>
+  <si>
+    <t>is location of</t>
+  </si>
+  <si>
+    <t>55106597</t>
+  </si>
+  <si>
+    <t>51995217</t>
+  </si>
+  <si>
+    <t>60548040</t>
+  </si>
+  <si>
+    <t>3763552</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>97173369</t>
+  </si>
+  <si>
+    <t>52104898</t>
+  </si>
+  <si>
+    <t>2940375</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>74021568</t>
+  </si>
+  <si>
+    <t>affects</t>
+  </si>
+  <si>
+    <t>116305876</t>
+  </si>
+  <si>
+    <t>augments</t>
+  </si>
+  <si>
+    <t>124052767</t>
+  </si>
+  <si>
+    <t>prevents</t>
+  </si>
+  <si>
+    <t>54914429</t>
+  </si>
+  <si>
+    <t>59544087</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>54191904</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>115399020</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>54055480</t>
+  </si>
+  <si>
+    <t>is associated with</t>
+  </si>
+  <si>
+    <t>54191997</t>
+  </si>
+  <si>
+    <t>is not associated with</t>
+  </si>
+  <si>
+    <t>711620</t>
+  </si>
+  <si>
+    <t>combined modality therapy</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>60712132</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>60689791</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>98283201</t>
+  </si>
+  <si>
+    <t>72388267</t>
+  </si>
+  <si>
+    <t>56373081</t>
+  </si>
+  <si>
+    <t>65077</t>
+  </si>
+  <si>
+    <t>plasma</t>
+  </si>
+  <si>
+    <t>Anatomy</t>
+  </si>
+  <si>
+    <t>5894471</t>
+  </si>
+  <si>
+    <t>56045215</t>
+  </si>
+  <si>
+    <t>60220221</t>
+  </si>
+  <si>
+    <t>does not cause</t>
+  </si>
+  <si>
+    <t>5317663</t>
+  </si>
+  <si>
+    <t>prednisolone</t>
+  </si>
+  <si>
+    <t>113722207</t>
+  </si>
+  <si>
+    <t>71090287</t>
+  </si>
+  <si>
+    <t>59040063</t>
+  </si>
+  <si>
+    <t>15983465</t>
+  </si>
+  <si>
+    <t>indicates</t>
+  </si>
+  <si>
+    <t>57916579</t>
+  </si>
+  <si>
+    <t>5158816</t>
+  </si>
+  <si>
+    <t>stevens-johnson syndrome</t>
+  </si>
+  <si>
+    <t>16538297</t>
+  </si>
+  <si>
+    <t>92052756</t>
+  </si>
+  <si>
+    <t>precedes</t>
+  </si>
+  <si>
+    <t>40247410</t>
+  </si>
+  <si>
+    <t>is manifestation of</t>
+  </si>
+  <si>
+    <t>4042009</t>
+  </si>
+  <si>
+    <t>toxic epidermal necrolysis</t>
+  </si>
+  <si>
+    <t>16538301</t>
+  </si>
+  <si>
+    <t>40247414</t>
+  </si>
+  <si>
+    <t>3204847</t>
+  </si>
+  <si>
+    <t>drug-induced stevens johnson syndrome</t>
+  </si>
+  <si>
+    <t>16538300</t>
+  </si>
+  <si>
+    <t>40247413</t>
+  </si>
+  <si>
+    <t>1936620</t>
+  </si>
+  <si>
+    <t>mycoplasma-induced stevens-johnson syndrome</t>
+  </si>
+  <si>
+    <t>16538299</t>
+  </si>
+  <si>
+    <t>40247412</t>
+  </si>
+  <si>
+    <t>1932384</t>
+  </si>
+  <si>
+    <t>stevens-johnson syndrome toxic epidermal necrolysis spectrum</t>
+  </si>
+  <si>
+    <t>16538298</t>
+  </si>
+  <si>
+    <t>40247411</t>
+  </si>
+  <si>
+    <t>133368</t>
+  </si>
+  <si>
+    <t>homo sapiens</t>
+  </si>
+  <si>
+    <t>55106681</t>
+  </si>
+  <si>
+    <t>58032294</t>
+  </si>
+  <si>
+    <t>3033627</t>
+  </si>
+  <si>
+    <t>discontinuation (procedure)</t>
+  </si>
+  <si>
+    <t>90856776</t>
+  </si>
+  <si>
+    <t>82074482</t>
+  </si>
+  <si>
+    <t>70779975</t>
+  </si>
+  <si>
+    <t>603590</t>
+  </si>
+  <si>
+    <t>headache</t>
+  </si>
+  <si>
+    <t>16538011</t>
+  </si>
+  <si>
+    <t>118891170</t>
+  </si>
+  <si>
+    <t>3814649</t>
+  </si>
+  <si>
+    <t>seizures</t>
+  </si>
+  <si>
+    <t>16538252</t>
+  </si>
+  <si>
+    <t>56726739</t>
+  </si>
+  <si>
+    <t>78348916</t>
+  </si>
+  <si>
+    <t>356203</t>
+  </si>
+  <si>
+    <t>asthenia</t>
+  </si>
+  <si>
+    <t>16537931</t>
+  </si>
+  <si>
+    <t>57482990</t>
+  </si>
+  <si>
+    <t>40108520</t>
+  </si>
+  <si>
+    <t>71366650</t>
+  </si>
+  <si>
+    <t>107058213</t>
+  </si>
+  <si>
+    <t>237928</t>
+  </si>
+  <si>
+    <t>control groups</t>
+  </si>
+  <si>
+    <t>73362975</t>
+  </si>
+  <si>
+    <t>119262239</t>
+  </si>
+  <si>
+    <t>51573790</t>
+  </si>
+  <si>
+    <t>590091</t>
+  </si>
+  <si>
+    <t>male population group</t>
+  </si>
+  <si>
+    <t>91310828</t>
+  </si>
+  <si>
+    <t>does not treat</t>
+  </si>
+  <si>
+    <t>52322115</t>
+  </si>
+  <si>
+    <t>54866972</t>
+  </si>
+  <si>
+    <t>96038728</t>
+  </si>
+  <si>
+    <t>58723074</t>
+  </si>
+  <si>
+    <t>5792464</t>
+  </si>
+  <si>
+    <t>elderly (population group)</t>
+  </si>
+  <si>
+    <t>89595213</t>
+  </si>
+  <si>
+    <t>60646280</t>
+  </si>
+  <si>
+    <t>3204683</t>
+  </si>
+  <si>
+    <t>management procedure</t>
+  </si>
+  <si>
+    <t>Activities &amp; Behaviors</t>
+  </si>
+  <si>
+    <t>85934982</t>
+  </si>
+  <si>
+    <t>52818848</t>
+  </si>
+  <si>
+    <t>685378</t>
+  </si>
+  <si>
+    <t>persons</t>
+  </si>
+  <si>
+    <t>70394637</t>
+  </si>
+  <si>
+    <t>53157258</t>
+  </si>
+  <si>
+    <t>5223016</t>
+  </si>
+  <si>
+    <t>syndrome</t>
+  </si>
+  <si>
+    <t>88226077</t>
+  </si>
+  <si>
+    <t>86651226</t>
+  </si>
+  <si>
+    <t>67813261</t>
+  </si>
+  <si>
+    <t>133681402</t>
+  </si>
+  <si>
+    <t>predisposes</t>
+  </si>
+  <si>
+    <t>89346547</t>
+  </si>
+  <si>
+    <t>53328911</t>
+  </si>
+  <si>
+    <t>53326734</t>
+  </si>
+  <si>
+    <t>82784570</t>
+  </si>
+  <si>
+    <t>62568679</t>
+  </si>
+  <si>
+    <t>126640839</t>
+  </si>
+  <si>
+    <t>64491794</t>
+  </si>
+  <si>
+    <t>76318314</t>
+  </si>
+  <si>
+    <t>3208634</t>
+  </si>
+  <si>
+    <t>evaluation procedure</t>
+  </si>
+  <si>
+    <t>97580382</t>
+  </si>
+  <si>
+    <t>57353910</t>
+  </si>
+  <si>
+    <t>5647992</t>
+  </si>
+  <si>
+    <t>cavia</t>
+  </si>
+  <si>
+    <t>101660757</t>
+  </si>
+  <si>
+    <t>56014994</t>
+  </si>
+  <si>
+    <t>2786091</t>
+  </si>
+  <si>
+    <t>ifng (homo sapiens)</t>
+  </si>
+  <si>
+    <t>Genes &amp; Molecular Sequences</t>
+  </si>
+  <si>
+    <t>83322395</t>
+  </si>
+  <si>
+    <t>78907191</t>
+  </si>
+  <si>
+    <t>28146989</t>
+  </si>
+  <si>
+    <t>gene product is expressed in</t>
+  </si>
+  <si>
+    <t>484171</t>
+  </si>
+  <si>
+    <t>outpatients</t>
+  </si>
+  <si>
+    <t>109131354</t>
+  </si>
+  <si>
+    <t>67785193</t>
+  </si>
+  <si>
+    <t>5211188</t>
+  </si>
+  <si>
+    <t>antineoplastic agents</t>
+  </si>
+  <si>
+    <t>39417906</t>
+  </si>
+  <si>
+    <t>52708634</t>
+  </si>
+  <si>
+    <t>62101065</t>
+  </si>
+  <si>
+    <t>complicates</t>
+  </si>
+  <si>
+    <t>70270699</t>
+  </si>
+  <si>
+    <t>4028398</t>
+  </si>
+  <si>
+    <t>placebos</t>
+  </si>
+  <si>
+    <t>97644581</t>
+  </si>
+  <si>
+    <t>is higher than</t>
+  </si>
+  <si>
+    <t>53929902</t>
+  </si>
+  <si>
+    <t>114705150</t>
+  </si>
+  <si>
+    <t>is the same as</t>
+  </si>
+  <si>
+    <t>80634282</t>
+  </si>
+  <si>
+    <t>102355328</t>
+  </si>
+  <si>
+    <t>68165653</t>
+  </si>
+  <si>
+    <t>54785424</t>
+  </si>
+  <si>
+    <t>83704256</t>
+  </si>
+  <si>
+    <t>62486651</t>
+  </si>
+  <si>
+    <t>837423</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>109872476</t>
+  </si>
+  <si>
+    <t>75476825</t>
+  </si>
+  <si>
+    <t>75975997</t>
+  </si>
+  <si>
+    <t>62612341</t>
+  </si>
+  <si>
+    <t>76226311</t>
+  </si>
+  <si>
+    <t>57015629</t>
+  </si>
+  <si>
+    <t>62044063</t>
+  </si>
+  <si>
+    <t>111346269</t>
+  </si>
+  <si>
+    <t>51510792</t>
+  </si>
+  <si>
+    <t>70236583</t>
+  </si>
+  <si>
+    <t>67401223</t>
+  </si>
+  <si>
+    <t>does not coexist with</t>
+  </si>
+  <si>
+    <t>96754708</t>
+  </si>
+  <si>
+    <t>53416384</t>
+  </si>
+  <si>
+    <t>106563038</t>
+  </si>
+  <si>
+    <t>does not predispose</t>
+  </si>
+  <si>
+    <t>56445110</t>
+  </si>
+  <si>
+    <t>59514557</t>
+  </si>
+  <si>
+    <t>51534101</t>
+  </si>
+  <si>
+    <t>812094</t>
+  </si>
+  <si>
+    <t>operative surgical procedures</t>
+  </si>
+  <si>
+    <t>54798124</t>
+  </si>
+  <si>
+    <t>117929001</t>
+  </si>
+  <si>
+    <t>66484588</t>
+  </si>
+  <si>
+    <t>70351485</t>
+  </si>
+  <si>
+    <t>780616</t>
+  </si>
+  <si>
+    <t>ketoconazole</t>
+  </si>
+  <si>
+    <t>67367939</t>
+  </si>
+  <si>
+    <t>57770130</t>
+  </si>
+  <si>
+    <t>54069679</t>
+  </si>
+  <si>
+    <t>5648228</t>
+  </si>
+  <si>
+    <t>therapeutic procedure</t>
+  </si>
+  <si>
+    <t>92846802</t>
+  </si>
+  <si>
+    <t>51580579</t>
+  </si>
+  <si>
+    <t>51582318</t>
+  </si>
+  <si>
+    <t>109407837</t>
+  </si>
+  <si>
+    <t>71194832</t>
+  </si>
+  <si>
+    <t>133559350</t>
+  </si>
+  <si>
+    <t>is not higher than</t>
+  </si>
+  <si>
+    <t>88239420</t>
+  </si>
+  <si>
+    <t>does not prevent</t>
+  </si>
+  <si>
+    <t>51917388</t>
+  </si>
+  <si>
+    <t>74019355</t>
+  </si>
+  <si>
+    <t>124039662</t>
+  </si>
+  <si>
+    <t>does not affect</t>
+  </si>
+  <si>
+    <t>55250996</t>
+  </si>
+  <si>
+    <t>88073728</t>
+  </si>
+  <si>
+    <t>95958340</t>
+  </si>
+  <si>
+    <t>51505871</t>
+  </si>
+  <si>
+    <t>62705326</t>
+  </si>
+  <si>
+    <t>52406784</t>
+  </si>
+  <si>
+    <t>55372057</t>
+  </si>
+  <si>
+    <t>4033983</t>
+  </si>
+  <si>
+    <t>pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>66310104</t>
+  </si>
+  <si>
+    <t>63360303</t>
+  </si>
+  <si>
+    <t>64607682</t>
+  </si>
+  <si>
+    <t>76694645</t>
+  </si>
+  <si>
+    <t>115731820</t>
+  </si>
+  <si>
+    <t>119419964</t>
+  </si>
+  <si>
+    <t>68844156</t>
+  </si>
+  <si>
+    <t>39417905</t>
+  </si>
+  <si>
+    <t>is ingredient of</t>
+  </si>
+  <si>
+    <t>59980625</t>
+  </si>
+  <si>
+    <t>81727826</t>
+  </si>
+  <si>
+    <t>disrupts</t>
+  </si>
+  <si>
+    <t>60867448</t>
+  </si>
+  <si>
+    <t>65092324</t>
+  </si>
+  <si>
+    <t>60831442</t>
+  </si>
+  <si>
+    <t>75581618</t>
+  </si>
+  <si>
+    <t>53486298</t>
+  </si>
+  <si>
+    <t>55398107</t>
+  </si>
+  <si>
+    <t>110917376</t>
+  </si>
+  <si>
+    <t>106533255</t>
+  </si>
+  <si>
+    <t>52674209</t>
+  </si>
+  <si>
+    <t>3784305</t>
+  </si>
+  <si>
+    <t>functional disorder</t>
+  </si>
+  <si>
+    <t>Concepts &amp; Ideas</t>
+  </si>
+  <si>
+    <t>113530754</t>
+  </si>
+  <si>
+    <t>111498228</t>
+  </si>
+  <si>
+    <t>85791036</t>
+  </si>
+  <si>
+    <t>71119037</t>
+  </si>
+  <si>
+    <t>54482303</t>
+  </si>
+  <si>
+    <t>70642201</t>
+  </si>
+  <si>
+    <t>133468422</t>
+  </si>
+  <si>
+    <t>87161786</t>
+  </si>
+  <si>
+    <t>2449184</t>
+  </si>
+  <si>
+    <t>tissue membrane</t>
+  </si>
+  <si>
+    <t>39417909</t>
+  </si>
+  <si>
+    <t>is part of</t>
+  </si>
+  <si>
+    <t>90231749</t>
+  </si>
+  <si>
+    <t>56275913</t>
+  </si>
+  <si>
+    <t>69259634</t>
+  </si>
+  <si>
+    <t>84764</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>Physiology</t>
+  </si>
+  <si>
+    <t>79296504</t>
+  </si>
+  <si>
+    <t>55505770</t>
+  </si>
+  <si>
+    <t>90747194</t>
+  </si>
+  <si>
+    <t>836328</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>39417910</t>
+  </si>
+  <si>
+    <t>130831103</t>
+  </si>
+  <si>
+    <t>51546462</t>
+  </si>
+  <si>
+    <t>4040981</t>
+  </si>
+  <si>
+    <t>pharmacotherapy</t>
+  </si>
+  <si>
+    <t>122406945</t>
+  </si>
+  <si>
+    <t>122407537</t>
+  </si>
+  <si>
+    <t>51689709</t>
+  </si>
+  <si>
+    <t>58867585</t>
+  </si>
+  <si>
+    <t>60058528</t>
+  </si>
+  <si>
+    <t>55400138</t>
+  </si>
+  <si>
+    <t>51507503</t>
+  </si>
+  <si>
+    <t>301179</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>109007790</t>
+  </si>
+  <si>
+    <t>63245094</t>
+  </si>
+  <si>
+    <t>71783427</t>
+  </si>
+  <si>
+    <t>51799357</t>
+  </si>
+  <si>
+    <t>66146859</t>
+  </si>
+  <si>
+    <t>2978160</t>
+  </si>
+  <si>
+    <t>assay</t>
+  </si>
+  <si>
+    <t>100717616</t>
+  </si>
+  <si>
+    <t>51668397</t>
+  </si>
+  <si>
+    <t>diagnoses</t>
+  </si>
+  <si>
+    <t>2464005</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>63226712</t>
+  </si>
+  <si>
+    <t>123798889</t>
+  </si>
+  <si>
+    <t>2449038</t>
+  </si>
+  <si>
+    <t>cohort</t>
+  </si>
+  <si>
+    <t>58964362</t>
+  </si>
+  <si>
+    <t>55668070</t>
+  </si>
+  <si>
+    <t>101887007</t>
+  </si>
+  <si>
+    <t>77493394</t>
+  </si>
+  <si>
+    <t>2406105</t>
+  </si>
+  <si>
+    <t>participant</t>
+  </si>
+  <si>
+    <t>133485656</t>
+  </si>
+  <si>
+    <t>121661605</t>
+  </si>
+  <si>
+    <t>63043018</t>
+  </si>
+  <si>
+    <t>613023</t>
+  </si>
+  <si>
+    <t>body tissue</t>
+  </si>
+  <si>
+    <t>105160694</t>
+  </si>
+  <si>
+    <t>67180685</t>
+  </si>
+  <si>
+    <t>86724450</t>
+  </si>
+  <si>
     <t>4027653</t>
   </si>
   <si>
     <t>patients</t>
   </si>
   <si>
-    <t>Living Beings</t>
-  </si>
-  <si>
-    <t>2617463</t>
-  </si>
-  <si>
-    <t>neutropenia</t>
-  </si>
-  <si>
-    <t>Disorders</t>
-  </si>
-  <si>
-    <t>120668562</t>
-  </si>
-  <si>
-    <t>is administered to</t>
-  </si>
-  <si>
-    <t>117776498</t>
-  </si>
-  <si>
-    <t>treats</t>
-  </si>
-  <si>
-    <t>162339643</t>
+    <t>51581611</t>
+  </si>
+  <si>
+    <t>96147389</t>
   </si>
   <si>
     <t>is not administered to</t>
   </si>
   <si>
-    <t>167777831</t>
-  </si>
-  <si>
-    <t>affects</t>
-  </si>
-  <si>
-    <t>139803597</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>118031156</t>
-  </si>
-  <si>
-    <t>117901141</t>
-  </si>
-  <si>
-    <t>is not process of</t>
-  </si>
-  <si>
-    <t>133287485</t>
+    <t>54309734</t>
+  </si>
+  <si>
+    <t>73362654</t>
+  </si>
+  <si>
+    <t>101575546</t>
+  </si>
+  <si>
+    <t>88834538</t>
+  </si>
+  <si>
+    <t>51690308</t>
+  </si>
+  <si>
+    <t>66891791</t>
   </si>
   <si>
     <t>does not occur in</t>
   </si>
   <si>
-    <t>117457628</t>
-  </si>
-  <si>
-    <t>is process of</t>
-  </si>
-  <si>
-    <t>155032942</t>
-  </si>
-  <si>
-    <t>does not affect</t>
-  </si>
-  <si>
-    <t>118036963</t>
-  </si>
-  <si>
-    <t>occurs in</t>
-  </si>
-  <si>
-    <t>133368</t>
-  </si>
-  <si>
-    <t>homo sapiens</t>
-  </si>
-  <si>
-    <t>68930052</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
-    <t>121496296</t>
-  </si>
-  <si>
-    <t>120675054</t>
-  </si>
-  <si>
-    <t>4877776</t>
-  </si>
-  <si>
-    <t>rattus norvegicus</t>
-  </si>
-  <si>
-    <t>134953618</t>
-  </si>
-  <si>
-    <t>125375357</t>
-  </si>
-  <si>
-    <t>70162613</t>
-  </si>
-  <si>
-    <t>118243858</t>
-  </si>
-  <si>
-    <t>816241</t>
-  </si>
-  <si>
-    <t>canis familiaris</t>
-  </si>
-  <si>
-    <t>72334106</t>
-  </si>
-  <si>
-    <t>inhibits</t>
-  </si>
-  <si>
-    <t>121496357</t>
-  </si>
-  <si>
-    <t>74504409</t>
-  </si>
-  <si>
-    <t>117836109</t>
-  </si>
-  <si>
-    <t>163412828</t>
-  </si>
-  <si>
-    <t>4028398</t>
-  </si>
-  <si>
-    <t>placebos</t>
-  </si>
-  <si>
-    <t>Procedures</t>
-  </si>
-  <si>
-    <t>134616970</t>
-  </si>
-  <si>
-    <t>is compared with</t>
-  </si>
-  <si>
-    <t>120302716</t>
-  </si>
-  <si>
-    <t>168475784</t>
-  </si>
-  <si>
-    <t>is the same as</t>
-  </si>
-  <si>
-    <t>163851798</t>
-  </si>
-  <si>
-    <t>is higher than</t>
-  </si>
-  <si>
-    <t>147033461</t>
-  </si>
-  <si>
-    <t>180907251</t>
-  </si>
-  <si>
-    <t>121243512</t>
-  </si>
-  <si>
-    <t>150080544</t>
-  </si>
-  <si>
-    <t>does not treat</t>
-  </si>
-  <si>
-    <t>128865379</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>3763552</t>
-  </si>
-  <si>
-    <t>individual</t>
-  </si>
-  <si>
-    <t>163408705</t>
-  </si>
-  <si>
-    <t>118346469</t>
-  </si>
-  <si>
-    <t>2940375</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>182528186</t>
-  </si>
-  <si>
-    <t>augments</t>
-  </si>
-  <si>
-    <t>190266343</t>
-  </si>
-  <si>
-    <t>prevents</t>
-  </si>
-  <si>
-    <t>121368064</t>
-  </si>
-  <si>
-    <t>140408912</t>
-  </si>
-  <si>
-    <t>120413392</t>
-  </si>
-  <si>
-    <t>is associated with</t>
-  </si>
-  <si>
-    <t>120523987</t>
-  </si>
-  <si>
-    <t>is not associated with</t>
-  </si>
-  <si>
-    <t>125971092</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>181528403</t>
-  </si>
-  <si>
-    <t>120523904</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>711620</t>
-  </si>
-  <si>
-    <t>combined modality therapy</t>
-  </si>
-  <si>
-    <t>127089527</t>
-  </si>
-  <si>
-    <t>127111391</t>
-  </si>
-  <si>
-    <t>138788151</t>
-  </si>
-  <si>
-    <t>118810170</t>
-  </si>
-  <si>
-    <t>164491499</t>
-  </si>
-  <si>
-    <t>65077</t>
-  </si>
-  <si>
-    <t>plasma</t>
-  </si>
-  <si>
-    <t>Anatomy</t>
-  </si>
-  <si>
-    <t>72296993</t>
-  </si>
-  <si>
-    <t>122460417</t>
-  </si>
-  <si>
-    <t>123127486</t>
-  </si>
-  <si>
-    <t>does not cause</t>
-  </si>
-  <si>
-    <t>4042009</t>
-  </si>
-  <si>
-    <t>toxic epidermal necrolysis</t>
-  </si>
-  <si>
-    <t>82786567</t>
-  </si>
-  <si>
-    <t>indicates</t>
-  </si>
-  <si>
-    <t>106436776</t>
-  </si>
-  <si>
-    <t>is manifestation of</t>
-  </si>
-  <si>
-    <t>3204847</t>
-  </si>
-  <si>
-    <t>drug-induced stevens johnson syndrome</t>
-  </si>
-  <si>
-    <t>82786566</t>
-  </si>
-  <si>
-    <t>106436775</t>
-  </si>
-  <si>
-    <t>1936620</t>
-  </si>
-  <si>
-    <t>mycoplasma-induced stevens-johnson syndrome</t>
-  </si>
-  <si>
-    <t>82786565</t>
-  </si>
-  <si>
-    <t>106436774</t>
-  </si>
-  <si>
-    <t>1932384</t>
-  </si>
-  <si>
-    <t>stevens-johnson syndrome toxic epidermal necrolysis spectrum</t>
-  </si>
-  <si>
-    <t>82786564</t>
-  </si>
-  <si>
-    <t>106436773</t>
-  </si>
-  <si>
-    <t>603590</t>
-  </si>
-  <si>
-    <t>headache</t>
-  </si>
-  <si>
-    <t>82786277</t>
-  </si>
-  <si>
-    <t>185106220</t>
-  </si>
-  <si>
-    <t>5158816</t>
-  </si>
-  <si>
-    <t>stevens-johnson syndrome</t>
-  </si>
-  <si>
-    <t>82786563</t>
-  </si>
-  <si>
-    <t>106436772</t>
-  </si>
-  <si>
-    <t>158176694</t>
-  </si>
-  <si>
-    <t>precedes</t>
-  </si>
-  <si>
-    <t>3814649</t>
-  </si>
-  <si>
-    <t>seizures</t>
-  </si>
-  <si>
-    <t>82786518</t>
-  </si>
-  <si>
-    <t>144726368</t>
-  </si>
-  <si>
-    <t>119202585</t>
-  </si>
-  <si>
-    <t>356203</t>
-  </si>
-  <si>
-    <t>asthenia</t>
-  </si>
-  <si>
-    <t>82786197</t>
-  </si>
-  <si>
-    <t>137773663</t>
-  </si>
-  <si>
-    <t>106291769</t>
-  </si>
-  <si>
-    <t>173270285</t>
-  </si>
-  <si>
-    <t>123901237</t>
-  </si>
-  <si>
-    <t>237928</t>
-  </si>
-  <si>
-    <t>control groups</t>
-  </si>
-  <si>
-    <t>185459500</t>
-  </si>
-  <si>
-    <t>139803871</t>
-  </si>
-  <si>
-    <t>117801888</t>
-  </si>
-  <si>
-    <t>5792464</t>
-  </si>
-  <si>
-    <t>elderly (population group)</t>
-  </si>
-  <si>
-    <t>155778382</t>
-  </si>
-  <si>
-    <t>127065587</t>
-  </si>
-  <si>
-    <t>590091</t>
-  </si>
-  <si>
-    <t>male population group</t>
-  </si>
-  <si>
-    <t>118551553</t>
-  </si>
-  <si>
-    <t>121316439</t>
-  </si>
-  <si>
-    <t>157540234</t>
-  </si>
-  <si>
-    <t>121448440</t>
-  </si>
-  <si>
-    <t>162269334</t>
-  </si>
-  <si>
-    <t>3204683</t>
-  </si>
-  <si>
-    <t>management procedure</t>
-  </si>
-  <si>
-    <t>Activities &amp; Behaviors</t>
-  </si>
-  <si>
-    <t>152358186</t>
-  </si>
-  <si>
-    <t>119115036</t>
-  </si>
-  <si>
-    <t>685378</t>
-  </si>
-  <si>
-    <t>persons</t>
-  </si>
-  <si>
-    <t>136823296</t>
-  </si>
-  <si>
-    <t>119436914</t>
-  </si>
-  <si>
-    <t>3208634</t>
-  </si>
-  <si>
-    <t>evaluation procedure</t>
-  </si>
-  <si>
-    <t>163698864</t>
-  </si>
-  <si>
-    <t>123795677</t>
-  </si>
-  <si>
-    <t>5648228</t>
-  </si>
-  <si>
-    <t>therapeutic procedure</t>
-  </si>
-  <si>
-    <t>117776319</t>
-  </si>
-  <si>
-    <t>175585738</t>
-  </si>
-  <si>
-    <t>199751822</t>
-  </si>
-  <si>
-    <t>is not higher than</t>
-  </si>
-  <si>
-    <t>137608369</t>
-  </si>
-  <si>
-    <t>159074197</t>
-  </si>
-  <si>
-    <t>117776856</t>
-  </si>
-  <si>
-    <t>154281003</t>
-  </si>
-  <si>
-    <t>complicates</t>
-  </si>
-  <si>
-    <t>140400322</t>
-  </si>
-  <si>
-    <t>121636341</t>
-  </si>
-  <si>
-    <t>129167912</t>
-  </si>
-  <si>
-    <t>117722842</t>
-  </si>
-  <si>
-    <t>154515314</t>
-  </si>
-  <si>
-    <t>does not prevent</t>
-  </si>
-  <si>
-    <t>118681684</t>
-  </si>
-  <si>
-    <t>121768514</t>
-  </si>
-  <si>
-    <t>162160075</t>
-  </si>
-  <si>
-    <t>118125235</t>
-  </si>
-  <si>
-    <t>predisposes</t>
-  </si>
-  <si>
-    <t>190174881</t>
-  </si>
-  <si>
-    <t>5647992</t>
-  </si>
-  <si>
-    <t>cavia</t>
-  </si>
-  <si>
-    <t>167847037</t>
-  </si>
-  <si>
-    <t>is location of</t>
-  </si>
-  <si>
-    <t>122399657</t>
-  </si>
-  <si>
-    <t>2449184</t>
-  </si>
-  <si>
-    <t>tissue membrane</t>
-  </si>
-  <si>
-    <t>105769760</t>
-  </si>
-  <si>
-    <t>is part of</t>
-  </si>
-  <si>
-    <t>156389153</t>
-  </si>
-  <si>
-    <t>135756803</t>
-  </si>
-  <si>
-    <t>122711255</t>
-  </si>
-  <si>
-    <t>484171</t>
-  </si>
-  <si>
-    <t>outpatients</t>
-  </si>
-  <si>
-    <t>175343814</t>
-  </si>
-  <si>
-    <t>134112535</t>
-  </si>
-  <si>
-    <t>5211188</t>
-  </si>
-  <si>
-    <t>antineoplastic agents</t>
-  </si>
-  <si>
-    <t>105769757</t>
-  </si>
-  <si>
-    <t>136626277</t>
-  </si>
-  <si>
-    <t>118958942</t>
-  </si>
-  <si>
-    <t>128541576</t>
-  </si>
-  <si>
-    <t>4033983</t>
-  </si>
-  <si>
-    <t>pharmaceutical preparations</t>
-  </si>
-  <si>
-    <t>181863712</t>
-  </si>
-  <si>
-    <t>132693043</t>
-  </si>
-  <si>
-    <t>126378712</t>
-  </si>
-  <si>
-    <t>143058128</t>
-  </si>
-  <si>
-    <t>131095192</t>
-  </si>
-  <si>
-    <t>135258069</t>
-  </si>
-  <si>
-    <t>105769756</t>
-  </si>
-  <si>
-    <t>is ingredient of</t>
-  </si>
-  <si>
-    <t>185631235</t>
-  </si>
-  <si>
-    <t>129723247</t>
-  </si>
-  <si>
-    <t>172729941</t>
-  </si>
-  <si>
-    <t>127289764</t>
-  </si>
-  <si>
-    <t>148189476</t>
-  </si>
-  <si>
-    <t>disrupts</t>
-  </si>
-  <si>
-    <t>127251452</t>
-  </si>
-  <si>
-    <t>121767751</t>
-  </si>
-  <si>
-    <t>177123374</t>
-  </si>
-  <si>
-    <t>118951813</t>
-  </si>
-  <si>
-    <t>131456971</t>
-  </si>
-  <si>
-    <t>141970822</t>
-  </si>
-  <si>
-    <t>119763181</t>
-  </si>
-  <si>
-    <t>301179</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>175198760</t>
-  </si>
-  <si>
-    <t>118002655</t>
-  </si>
-  <si>
-    <t>138226903</t>
-  </si>
-  <si>
-    <t>132562588</t>
-  </si>
-  <si>
-    <t>129738232</t>
+    <t>51812482</t>
+  </si>
+  <si>
+    <t>51265582</t>
+  </si>
+  <si>
+    <t>51824039</t>
+  </si>
+  <si>
+    <t>3815757</t>
+  </si>
+  <si>
+    <t>treatment protocols</t>
+  </si>
+  <si>
+    <t>117790126</t>
+  </si>
+  <si>
+    <t>60920152</t>
+  </si>
+  <si>
+    <t>55028967</t>
+  </si>
+  <si>
+    <t>61570548</t>
+  </si>
+  <si>
+    <t>99370617</t>
+  </si>
+  <si>
+    <t>79522576</t>
+  </si>
+  <si>
+    <t>92495443</t>
+  </si>
+  <si>
+    <t>3769667</t>
+  </si>
+  <si>
+    <t>blood flow</t>
+  </si>
+  <si>
+    <t>60347302</t>
+  </si>
+  <si>
+    <t>60265965</t>
+  </si>
+  <si>
+    <t>54028404</t>
+  </si>
+  <si>
+    <t>3202301</t>
+  </si>
+  <si>
+    <t>systemic arterial pressure</t>
+  </si>
+  <si>
+    <t>63230545</t>
+  </si>
+  <si>
+    <t>82552643</t>
+  </si>
+  <si>
+    <t>69631877</t>
+  </si>
+  <si>
+    <t>77535651</t>
+  </si>
+  <si>
+    <t>97645398</t>
+  </si>
+  <si>
+    <t>107428391</t>
+  </si>
+  <si>
+    <t>539765</t>
+  </si>
+  <si>
+    <t>orosomucoid</t>
+  </si>
+  <si>
+    <t>78240679</t>
+  </si>
+  <si>
+    <t>76695141</t>
+  </si>
+  <si>
+    <t>80532994</t>
+  </si>
+  <si>
+    <t>76694876</t>
+  </si>
+  <si>
+    <t>60837631</t>
+  </si>
+  <si>
+    <t>308092</t>
+  </si>
+  <si>
+    <t>agonists</t>
+  </si>
+  <si>
+    <t>129694537</t>
+  </si>
+  <si>
+    <t>62724835</t>
+  </si>
+  <si>
+    <t>281347</t>
+  </si>
+  <si>
+    <t>long-term care</t>
+  </si>
+  <si>
+    <t>105255882</t>
+  </si>
+  <si>
+    <t>115741471</t>
+  </si>
+  <si>
+    <t>is method of</t>
+  </si>
+  <si>
+    <t>99783196</t>
+  </si>
+  <si>
+    <t>111132154</t>
+  </si>
+  <si>
+    <t>607167</t>
+  </si>
+  <si>
+    <t>hypertensive disease</t>
+  </si>
+  <si>
+    <t>84831351</t>
+  </si>
+  <si>
+    <t>106560640</t>
+  </si>
+  <si>
+    <t>53298657</t>
+  </si>
+  <si>
+    <t>5805792</t>
+  </si>
+  <si>
+    <t>diastasis</t>
+  </si>
+  <si>
+    <t>119212647</t>
+  </si>
+  <si>
+    <t>71612215</t>
+  </si>
+  <si>
+    <t>544027</t>
+  </si>
+  <si>
+    <t>kidney</t>
+  </si>
+  <si>
+    <t>95318370</t>
+  </si>
+  <si>
+    <t>90867618</t>
+  </si>
+  <si>
+    <t>5127262</t>
+  </si>
+  <si>
+    <t>pain</t>
+  </si>
+  <si>
+    <t>111358709</t>
+  </si>
+  <si>
+    <t>56781844</t>
+  </si>
+  <si>
+    <t>74039730</t>
+  </si>
+  <si>
+    <t>116785150</t>
+  </si>
+  <si>
+    <t>120036183</t>
+  </si>
+  <si>
+    <t>4747186</t>
+  </si>
+  <si>
+    <t>apoptosis</t>
+  </si>
+  <si>
+    <t>89579464</t>
+  </si>
+  <si>
+    <t>80413773</t>
+  </si>
+  <si>
+    <t>81460509</t>
+  </si>
+  <si>
+    <t>4048530</t>
+  </si>
+  <si>
+    <t>hypotension</t>
+  </si>
+  <si>
+    <t>55158424</t>
+  </si>
+  <si>
+    <t>51579697</t>
+  </si>
+  <si>
+    <t>51583329</t>
+  </si>
+  <si>
+    <t>119520841</t>
+  </si>
+  <si>
+    <t>40115474</t>
+  </si>
+  <si>
+    <t>53460811</t>
+  </si>
+  <si>
+    <t>4040861</t>
+  </si>
+  <si>
+    <t>complication</t>
+  </si>
+  <si>
+    <t>58964175</t>
+  </si>
+  <si>
+    <t>68171849</t>
+  </si>
+  <si>
+    <t>114702098</t>
+  </si>
+  <si>
+    <t>106772458</t>
+  </si>
+  <si>
+    <t>does not augment</t>
+  </si>
+  <si>
+    <t>64954442</t>
+  </si>
+  <si>
+    <t>68445297</t>
+  </si>
+  <si>
+    <t>116014395</t>
+  </si>
+  <si>
+    <t>67870611</t>
+  </si>
+  <si>
+    <t>68701959</t>
+  </si>
+  <si>
+    <t>55442187</t>
+  </si>
+  <si>
+    <t>71866738</t>
+  </si>
+  <si>
+    <t>4028126</t>
+  </si>
+  <si>
+    <t>muscle</t>
+  </si>
+  <si>
+    <t>89667244</t>
+  </si>
+  <si>
+    <t>57354610</t>
+  </si>
+  <si>
+    <t>4027489</t>
+  </si>
+  <si>
+    <t>microcirculation</t>
+  </si>
+  <si>
+    <t>128972562</t>
+  </si>
+  <si>
+    <t>88043877</t>
+  </si>
+  <si>
+    <t>3799048</t>
+  </si>
+  <si>
+    <t>beagle</t>
+  </si>
+  <si>
+    <t>125178967</t>
+  </si>
+  <si>
+    <t>78613962</t>
+  </si>
+  <si>
+    <t>3740079</t>
+  </si>
+  <si>
+    <t>journalist</t>
+  </si>
+  <si>
+    <t>60257291</t>
+  </si>
+  <si>
+    <t>68260404</t>
+  </si>
+  <si>
+    <t>60660058</t>
+  </si>
+  <si>
+    <t>36011</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>99739111</t>
+  </si>
+  <si>
+    <t>52885490</t>
+  </si>
+  <si>
+    <t>111160723</t>
+  </si>
+  <si>
+    <t>129282915</t>
   </si>
   <si>
     <t>2986464</t>
@@ -908,367 +1628,358 @@
     <t>injection procedure</t>
   </si>
   <si>
-    <t>171354739</t>
-  </si>
-  <si>
-    <t>195069238</t>
-  </si>
-  <si>
-    <t>128542231</t>
+    <t>105154251</t>
+  </si>
+  <si>
+    <t>128882769</t>
+  </si>
+  <si>
+    <t>62101779</t>
   </si>
   <si>
     <t>does not complicate</t>
   </si>
   <si>
-    <t>143659314</t>
-  </si>
-  <si>
-    <t>119761699</t>
-  </si>
-  <si>
-    <t>118182923</t>
-  </si>
-  <si>
-    <t>780616</t>
-  </si>
-  <si>
-    <t>ketoconazole</t>
-  </si>
-  <si>
-    <t>124250611</t>
-  </si>
-  <si>
-    <t>133761539</t>
-  </si>
-  <si>
-    <t>117881649</t>
-  </si>
-  <si>
-    <t>5308239</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>127683956</t>
-  </si>
-  <si>
-    <t>121479994</t>
-  </si>
-  <si>
-    <t>117693343</t>
-  </si>
-  <si>
-    <t>3740079</t>
-  </si>
-  <si>
-    <t>journalist</t>
-  </si>
-  <si>
-    <t>126635618</t>
-  </si>
-  <si>
-    <t>134751498</t>
-  </si>
-  <si>
-    <t>diagnoses</t>
-  </si>
-  <si>
-    <t>127041791</t>
-  </si>
-  <si>
-    <t>84764</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>Physiology</t>
-  </si>
-  <si>
-    <t>145699061</t>
-  </si>
-  <si>
-    <t>121903668</t>
-  </si>
-  <si>
-    <t>157035455</t>
-  </si>
-  <si>
-    <t>836328</t>
-  </si>
-  <si>
-    <t>blood</t>
-  </si>
-  <si>
-    <t>105769761</t>
-  </si>
-  <si>
-    <t>197020766</t>
-  </si>
-  <si>
-    <t>117754899</t>
-  </si>
-  <si>
-    <t>4040981</t>
-  </si>
-  <si>
-    <t>pharmacotherapy</t>
-  </si>
-  <si>
-    <t>188619263</t>
-  </si>
-  <si>
-    <t>188618719</t>
-  </si>
-  <si>
-    <t>121825210</t>
-  </si>
-  <si>
-    <t>125306733</t>
-  </si>
-  <si>
-    <t>117900606</t>
-  </si>
-  <si>
-    <t>117724317</t>
-  </si>
-  <si>
-    <t>126453840</t>
-  </si>
-  <si>
-    <t>2978160</t>
-  </si>
-  <si>
-    <t>assay</t>
-  </si>
-  <si>
-    <t>166832389</t>
-  </si>
-  <si>
-    <t>117876990</t>
-  </si>
-  <si>
-    <t>2464005</t>
-  </si>
-  <si>
-    <t>maximum</t>
-  </si>
-  <si>
-    <t>Concepts &amp; Ideas</t>
-  </si>
-  <si>
-    <t>129719840</t>
-  </si>
-  <si>
-    <t>189937051</t>
-  </si>
-  <si>
-    <t>2449038</t>
-  </si>
-  <si>
-    <t>cohort</t>
-  </si>
-  <si>
-    <t>125399650</t>
-  </si>
-  <si>
-    <t>168119745</t>
-  </si>
-  <si>
-    <t>143948078</t>
-  </si>
-  <si>
-    <t>122091176</t>
-  </si>
-  <si>
-    <t>2406105</t>
-  </si>
-  <si>
-    <t>participant</t>
-  </si>
-  <si>
-    <t>199678246</t>
-  </si>
-  <si>
-    <t>129450143</t>
-  </si>
-  <si>
-    <t>187806798</t>
-  </si>
-  <si>
-    <t>812094</t>
-  </si>
-  <si>
-    <t>operative surgical procedures</t>
-  </si>
-  <si>
-    <t>121244315</t>
-  </si>
-  <si>
-    <t>129860154</t>
-  </si>
-  <si>
-    <t>136747040</t>
-  </si>
-  <si>
-    <t>184124764</t>
-  </si>
-  <si>
-    <t>760841</t>
-  </si>
-  <si>
-    <t>domestic rabbit</t>
-  </si>
-  <si>
-    <t>121496237</t>
-  </si>
-  <si>
-    <t>134218929</t>
-  </si>
-  <si>
-    <t>126931725</t>
-  </si>
-  <si>
-    <t>118211939</t>
-  </si>
-  <si>
-    <t>613023</t>
-  </si>
-  <si>
-    <t>body tissue</t>
-  </si>
-  <si>
-    <t>133519580</t>
-  </si>
-  <si>
-    <t>171356800</t>
-  </si>
-  <si>
-    <t>153053909</t>
-  </si>
-  <si>
-    <t>4040861</t>
-  </si>
-  <si>
-    <t>complication</t>
-  </si>
-  <si>
-    <t>172970683</t>
-  </si>
-  <si>
-    <t>does not augment</t>
-  </si>
-  <si>
-    <t>180932940</t>
-  </si>
-  <si>
-    <t>125399389</t>
-  </si>
-  <si>
-    <t>134623052</t>
-  </si>
-  <si>
-    <t>182211973</t>
-  </si>
-  <si>
-    <t>does not coexist with</t>
-  </si>
-  <si>
-    <t>138275348</t>
-  </si>
-  <si>
-    <t>121863015</t>
-  </si>
-  <si>
-    <t>134799695</t>
-  </si>
-  <si>
-    <t>135090880</t>
-  </si>
-  <si>
-    <t>134324417</t>
-  </si>
-  <si>
-    <t>131312492</t>
-  </si>
-  <si>
-    <t>3769667</t>
-  </si>
-  <si>
-    <t>blood flow</t>
-  </si>
-  <si>
-    <t>126748467</t>
-  </si>
-  <si>
-    <t>126834281</t>
-  </si>
-  <si>
-    <t>120335549</t>
-  </si>
-  <si>
-    <t>2786091</t>
-  </si>
-  <si>
-    <t>ifng (homo sapiens)</t>
-  </si>
-  <si>
-    <t>Genes &amp; Molecular Sequences</t>
-  </si>
-  <si>
-    <t>149702827</t>
-  </si>
-  <si>
-    <t>94510306</t>
-  </si>
-  <si>
-    <t>gene product is expressed in</t>
-  </si>
-  <si>
-    <t>145307045</t>
-  </si>
-  <si>
-    <t>5223016</t>
-  </si>
-  <si>
-    <t>syndrome</t>
-  </si>
-  <si>
-    <t>155486272</t>
-  </si>
-  <si>
-    <t>154448611</t>
-  </si>
-  <si>
-    <t>199872406</t>
-  </si>
-  <si>
-    <t>153008686</t>
-  </si>
-  <si>
-    <t>134220704</t>
-  </si>
-  <si>
-    <t>192791142</t>
-  </si>
-  <si>
-    <t>119624027</t>
-  </si>
-  <si>
-    <t>128981294</t>
-  </si>
-  <si>
-    <t>119614794</t>
-  </si>
-  <si>
-    <t>149162415</t>
-  </si>
-  <si>
-    <t>140388653</t>
-  </si>
-  <si>
-    <t>130870048</t>
+    <t>79354984</t>
+  </si>
+  <si>
+    <t>53439089</t>
+  </si>
+  <si>
+    <t>51956519</t>
+  </si>
+  <si>
+    <t>2506281</t>
+  </si>
+  <si>
+    <t>adverse effects</t>
+  </si>
+  <si>
+    <t>53628857</t>
+  </si>
+  <si>
+    <t>81181210</t>
+  </si>
+  <si>
+    <t>119860754</t>
+  </si>
+  <si>
+    <t>61808333</t>
+  </si>
+  <si>
+    <t>101604983</t>
+  </si>
+  <si>
+    <t>59976944</t>
+  </si>
+  <si>
+    <t>65475306</t>
+  </si>
+  <si>
+    <t>79382422</t>
+  </si>
+  <si>
+    <t>1074935</t>
+  </si>
+  <si>
+    <t>traumatic injury</t>
+  </si>
+  <si>
+    <t>128972848</t>
+  </si>
+  <si>
+    <t>93776732</t>
+  </si>
+  <si>
+    <t>102577915</t>
+  </si>
+  <si>
+    <t>65200434</t>
+  </si>
+  <si>
+    <t>56388093</t>
+  </si>
+  <si>
+    <t>94761</t>
+  </si>
+  <si>
+    <t>administration, oral</t>
+  </si>
+  <si>
+    <t>91916983</t>
+  </si>
+  <si>
+    <t>51999398</t>
+  </si>
+  <si>
+    <t>837486</t>
+  </si>
+  <si>
+    <t>levofloxacin</t>
+  </si>
+  <si>
+    <t>130704770</t>
+  </si>
+  <si>
+    <t>106854756</t>
+  </si>
+  <si>
+    <t>stimulates</t>
+  </si>
+  <si>
+    <t>64113391</t>
+  </si>
+  <si>
+    <t>818016</t>
+  </si>
+  <si>
+    <t>systemic scleroderma</t>
+  </si>
+  <si>
+    <t>85836768</t>
+  </si>
+  <si>
+    <t>122113388</t>
+  </si>
+  <si>
+    <t>6107601</t>
+  </si>
+  <si>
+    <t>expression procedure</t>
+  </si>
+  <si>
+    <t>113196790</t>
+  </si>
+  <si>
+    <t>63429310</t>
+  </si>
+  <si>
+    <t>91695782</t>
+  </si>
+  <si>
+    <t>101436564</t>
+  </si>
+  <si>
+    <t>118236694</t>
+  </si>
+  <si>
+    <t>108955463</t>
+  </si>
+  <si>
+    <t>582022</t>
+  </si>
+  <si>
+    <t>glycoproteins</t>
+  </si>
+  <si>
+    <t>78249577</t>
+  </si>
+  <si>
+    <t>62510077</t>
+  </si>
+  <si>
+    <t>5792528</t>
+  </si>
+  <si>
+    <t>steroid therapy</t>
+  </si>
+  <si>
+    <t>67717388</t>
+  </si>
+  <si>
+    <t>does not use</t>
+  </si>
+  <si>
+    <t>58749723</t>
+  </si>
+  <si>
+    <t>116937369</t>
+  </si>
+  <si>
+    <t>98242714</t>
+  </si>
+  <si>
+    <t>5648475</t>
+  </si>
+  <si>
+    <t>vasodilation</t>
+  </si>
+  <si>
+    <t>66308194</t>
+  </si>
+  <si>
+    <t>86908303</t>
+  </si>
+  <si>
+    <t>65906582</t>
+  </si>
+  <si>
+    <t>5646027</t>
+  </si>
+  <si>
+    <t>antibiotics</t>
+  </si>
+  <si>
+    <t>130198086</t>
+  </si>
+  <si>
+    <t>87714139</t>
+  </si>
+  <si>
+    <t>62120082</t>
+  </si>
+  <si>
+    <t>51519575</t>
+  </si>
+  <si>
+    <t>5251520</t>
+  </si>
+  <si>
+    <t>venlafaxine</t>
+  </si>
+  <si>
+    <t>130419467</t>
+  </si>
+  <si>
+    <t>109766840</t>
+  </si>
+  <si>
+    <t>5127800</t>
+  </si>
+  <si>
+    <t>psychotherapy, multiple</t>
+  </si>
+  <si>
+    <t>54832148</t>
+  </si>
+  <si>
+    <t>54719306</t>
+  </si>
+  <si>
+    <t>54839663</t>
+  </si>
+  <si>
+    <t>123321582</t>
+  </si>
+  <si>
+    <t>4746651</t>
+  </si>
+  <si>
+    <t>physicians</t>
+  </si>
+  <si>
+    <t>103042303</t>
+  </si>
+  <si>
+    <t>108668812</t>
+  </si>
+  <si>
+    <t>66343201</t>
+  </si>
+  <si>
+    <t>80444489</t>
+  </si>
+  <si>
+    <t>4049133</t>
+  </si>
+  <si>
+    <t>hyperplasia</t>
+  </si>
+  <si>
+    <t>67884196</t>
+  </si>
+  <si>
+    <t>82943253</t>
+  </si>
+  <si>
+    <t>4035461</t>
+  </si>
+  <si>
+    <t>fibroblasts</t>
+  </si>
+  <si>
+    <t>95720379</t>
+  </si>
+  <si>
+    <t>75145653</t>
+  </si>
+  <si>
+    <t>4028381</t>
+  </si>
+  <si>
+    <t>drug kinetics</t>
+  </si>
+  <si>
+    <t>84778373</t>
+  </si>
+  <si>
+    <t>133485868</t>
+  </si>
+  <si>
+    <t>84778431</t>
+  </si>
+  <si>
+    <t>89333155</t>
+  </si>
+  <si>
+    <t>97827797</t>
+  </si>
+  <si>
+    <t>4027143</t>
+  </si>
+  <si>
+    <t>obstruction</t>
+  </si>
+  <si>
+    <t>115141289</t>
+  </si>
+  <si>
+    <t>86320979</t>
+  </si>
+  <si>
+    <t>104632950</t>
+  </si>
+  <si>
+    <t>3811276</t>
+  </si>
+  <si>
+    <t>favor</t>
+  </si>
+  <si>
+    <t>123876357</t>
+  </si>
+  <si>
+    <t>92760848</t>
+  </si>
+  <si>
+    <t>126370339</t>
+  </si>
+  <si>
+    <t>3805896</t>
+  </si>
+  <si>
+    <t>physical findings</t>
+  </si>
+  <si>
+    <t>130709265</t>
+  </si>
+  <si>
+    <t>91375114</t>
+  </si>
+  <si>
+    <t>91679419</t>
+  </si>
+  <si>
+    <t>3192698</t>
+  </si>
+  <si>
+    <t>smooth muscle (tissue)</t>
+  </si>
+  <si>
+    <t>95554092</t>
+  </si>
+  <si>
+    <t>111457099</t>
   </si>
   <si>
     <t>3131611</t>
@@ -1277,643 +1988,28 @@
     <t>observation parameter</t>
   </si>
   <si>
-    <t>152834685</t>
-  </si>
-  <si>
-    <t>157691256</t>
-  </si>
-  <si>
-    <t>120517403</t>
-  </si>
-  <si>
-    <t>139751623</t>
-  </si>
-  <si>
-    <t>151329634</t>
-  </si>
-  <si>
-    <t>133378586</t>
-  </si>
-  <si>
-    <t>121488340</t>
-  </si>
-  <si>
-    <t>122711117</t>
-  </si>
-  <si>
-    <t>308092</t>
-  </si>
-  <si>
-    <t>agonists</t>
-  </si>
-  <si>
-    <t>195881088</t>
-  </si>
-  <si>
-    <t>129125797</t>
-  </si>
-  <si>
-    <t>3033627</t>
-  </si>
-  <si>
-    <t>discontinuation (procedure)</t>
-  </si>
-  <si>
-    <t>157087263</t>
-  </si>
-  <si>
-    <t>137209216</t>
-  </si>
-  <si>
-    <t>148528649</t>
-  </si>
-  <si>
-    <t>607167</t>
-  </si>
-  <si>
-    <t>hypertensive disease</t>
-  </si>
-  <si>
-    <t>151213331</t>
-  </si>
-  <si>
-    <t>172772272</t>
-  </si>
-  <si>
-    <t>119597542</t>
-  </si>
-  <si>
-    <t>5805792</t>
-  </si>
-  <si>
-    <t>diastasis</t>
-  </si>
-  <si>
-    <t>185423802</t>
-  </si>
-  <si>
-    <t>138006678</t>
-  </si>
-  <si>
-    <t>544027</t>
-  </si>
-  <si>
-    <t>kidney</t>
-  </si>
-  <si>
-    <t>161551072</t>
-  </si>
-  <si>
-    <t>157097821</t>
-  </si>
-  <si>
-    <t>539765</t>
-  </si>
-  <si>
-    <t>orosomucoid</t>
-  </si>
-  <si>
-    <t>144633417</t>
-  </si>
-  <si>
-    <t>146900396</t>
-  </si>
-  <si>
-    <t>143058560</t>
-  </si>
-  <si>
-    <t>143058317</t>
-  </si>
-  <si>
-    <t>127258418</t>
-  </si>
-  <si>
-    <t>5317663</t>
-  </si>
-  <si>
-    <t>prednisolone</t>
-  </si>
-  <si>
-    <t>179951078</t>
-  </si>
-  <si>
-    <t>134909075</t>
-  </si>
-  <si>
-    <t>82235267</t>
-  </si>
-  <si>
-    <t>124342957</t>
-  </si>
-  <si>
-    <t>125419033</t>
-  </si>
-  <si>
-    <t>5127262</t>
-  </si>
-  <si>
-    <t>pain</t>
-  </si>
-  <si>
-    <t>140478490</t>
-  </si>
-  <si>
-    <t>177554508</t>
-  </si>
-  <si>
-    <t>123197987</t>
-  </si>
-  <si>
-    <t>186226287</t>
-  </si>
-  <si>
-    <t>182982246</t>
-  </si>
-  <si>
-    <t>4048530</t>
-  </si>
-  <si>
-    <t>hypotension</t>
-  </si>
-  <si>
-    <t>117778006</t>
-  </si>
-  <si>
-    <t>121565253</t>
-  </si>
-  <si>
-    <t>117775942</t>
-  </si>
-  <si>
-    <t>185737680</t>
-  </si>
-  <si>
-    <t>106302650</t>
-  </si>
-  <si>
-    <t>119840585</t>
-  </si>
-  <si>
-    <t>4028126</t>
-  </si>
-  <si>
-    <t>muscle</t>
-  </si>
-  <si>
-    <t>155823651</t>
-  </si>
-  <si>
-    <t>123776528</t>
-  </si>
-  <si>
-    <t>4027489</t>
-  </si>
-  <si>
-    <t>microcirculation</t>
-  </si>
-  <si>
-    <t>195180337</t>
-  </si>
-  <si>
-    <t>154334569</t>
-  </si>
-  <si>
-    <t>3815757</t>
-  </si>
-  <si>
-    <t>treatment protocols</t>
-  </si>
-  <si>
-    <t>183987155</t>
-  </si>
-  <si>
-    <t>145977518</t>
-  </si>
-  <si>
-    <t>121510530</t>
-  </si>
-  <si>
-    <t>127970434</t>
-  </si>
-  <si>
-    <t>127341920</t>
-  </si>
-  <si>
-    <t>158687313</t>
-  </si>
-  <si>
-    <t>165565373</t>
-  </si>
-  <si>
-    <t>3799048</t>
-  </si>
-  <si>
-    <t>beagle</t>
-  </si>
-  <si>
-    <t>191318285</t>
-  </si>
-  <si>
-    <t>145004492</t>
-  </si>
-  <si>
-    <t>3784305</t>
-  </si>
-  <si>
-    <t>functional disorder</t>
-  </si>
-  <si>
-    <t>177726142</t>
-  </si>
-  <si>
-    <t>179753303</t>
-  </si>
-  <si>
-    <t>153461922</t>
-  </si>
-  <si>
-    <t>150288902</t>
-  </si>
-  <si>
-    <t>199660742</t>
-  </si>
-  <si>
-    <t>137110595</t>
-  </si>
-  <si>
-    <t>120802857</t>
-  </si>
-  <si>
-    <t>137604976</t>
-  </si>
-  <si>
-    <t>36011</t>
-  </si>
-  <si>
-    <t>adult</t>
-  </si>
-  <si>
-    <t>165854956</t>
-  </si>
-  <si>
-    <t>119160650</t>
-  </si>
-  <si>
-    <t>195468381</t>
-  </si>
-  <si>
-    <t>177370729</t>
-  </si>
-  <si>
-    <t>3202301</t>
-  </si>
-  <si>
-    <t>systemic arterial pressure</t>
-  </si>
-  <si>
-    <t>163852593</t>
-  </si>
-  <si>
-    <t>148973509</t>
-  </si>
-  <si>
-    <t>143988582</t>
-  </si>
-  <si>
-    <t>135977848</t>
-  </si>
-  <si>
-    <t>129604524</t>
-  </si>
-  <si>
-    <t>173648541</t>
-  </si>
-  <si>
-    <t>2506281</t>
-  </si>
-  <si>
-    <t>adverse effects</t>
-  </si>
-  <si>
-    <t>147593653</t>
-  </si>
-  <si>
-    <t>119958311</t>
-  </si>
-  <si>
-    <t>131950771</t>
-  </si>
-  <si>
-    <t>126364089</t>
-  </si>
-  <si>
-    <t>167819730</t>
-  </si>
-  <si>
-    <t>143686430</t>
-  </si>
-  <si>
-    <t>128146633</t>
-  </si>
-  <si>
-    <t>186056177</t>
-  </si>
-  <si>
-    <t>94761</t>
-  </si>
-  <si>
-    <t>administration, oral</t>
-  </si>
-  <si>
-    <t>158144791</t>
-  </si>
-  <si>
-    <t>118238362</t>
-  </si>
-  <si>
-    <t>837486</t>
-  </si>
-  <si>
-    <t>levofloxacin</t>
-  </si>
-  <si>
-    <t>173052559</t>
-  </si>
-  <si>
-    <t>stimulates</t>
-  </si>
-  <si>
-    <t>196908256</t>
-  </si>
-  <si>
-    <t>130611986</t>
-  </si>
-  <si>
-    <t>818016</t>
-  </si>
-  <si>
-    <t>systemic scleroderma</t>
-  </si>
-  <si>
-    <t>152260923</t>
-  </si>
-  <si>
-    <t>188328820</t>
-  </si>
-  <si>
-    <t>6107601</t>
-  </si>
-  <si>
-    <t>expression procedure</t>
-  </si>
-  <si>
-    <t>179419649</t>
-  </si>
-  <si>
-    <t>184378519</t>
-  </si>
-  <si>
-    <t>157876145</t>
-  </si>
-  <si>
-    <t>175165800</t>
-  </si>
-  <si>
-    <t>129931749</t>
-  </si>
-  <si>
-    <t>167644001</t>
-  </si>
-  <si>
-    <t>582022</t>
-  </si>
-  <si>
-    <t>glycoproteins</t>
-  </si>
-  <si>
-    <t>144641412</t>
-  </si>
-  <si>
-    <t>125645514</t>
-  </si>
-  <si>
-    <t>5792528</t>
-  </si>
-  <si>
-    <t>steroid therapy</t>
-  </si>
-  <si>
-    <t>134067655</t>
-  </si>
-  <si>
-    <t>does not use</t>
-  </si>
-  <si>
-    <t>125123112</t>
-  </si>
-  <si>
-    <t>183077797</t>
-  </si>
-  <si>
-    <t>164450915</t>
-  </si>
-  <si>
-    <t>5648475</t>
-  </si>
-  <si>
-    <t>vasodilation</t>
-  </si>
-  <si>
-    <t>153237370</t>
-  </si>
-  <si>
-    <t>132691169</t>
-  </si>
-  <si>
-    <t>132385571</t>
-  </si>
-  <si>
-    <t>5646027</t>
-  </si>
-  <si>
-    <t>antibiotics</t>
-  </si>
-  <si>
-    <t>196421279</t>
-  </si>
-  <si>
-    <t>153993540</t>
-  </si>
-  <si>
-    <t>117719344</t>
-  </si>
-  <si>
-    <t>128507750</t>
-  </si>
-  <si>
-    <t>5251520</t>
-  </si>
-  <si>
-    <t>venlafaxine</t>
-  </si>
-  <si>
-    <t>196606592</t>
-  </si>
-  <si>
-    <t>175896302</t>
-  </si>
-  <si>
-    <t>5127800</t>
-  </si>
-  <si>
-    <t>psychotherapy, multiple</t>
-  </si>
-  <si>
-    <t>121279025</t>
-  </si>
-  <si>
-    <t>121286451</t>
-  </si>
-  <si>
-    <t>121156946</t>
-  </si>
-  <si>
-    <t>189525716</t>
-  </si>
-  <si>
-    <t>4747186</t>
-  </si>
-  <si>
-    <t>apoptosis</t>
-  </si>
-  <si>
-    <t>155734120</t>
-  </si>
-  <si>
-    <t>147835413</t>
-  </si>
-  <si>
-    <t>146814729</t>
-  </si>
-  <si>
-    <t>4746651</t>
-  </si>
-  <si>
-    <t>physicians</t>
-  </si>
-  <si>
-    <t>169266081</t>
-  </si>
-  <si>
-    <t>132833457</t>
-  </si>
-  <si>
-    <t>146841073</t>
-  </si>
-  <si>
-    <t>174846866</t>
-  </si>
-  <si>
-    <t>4049133</t>
-  </si>
-  <si>
-    <t>hyperplasia</t>
-  </si>
-  <si>
-    <t>134338082</t>
-  </si>
-  <si>
-    <t>149361356</t>
-  </si>
-  <si>
-    <t>4035461</t>
-  </si>
-  <si>
-    <t>fibroblasts</t>
-  </si>
-  <si>
-    <t>161922705</t>
-  </si>
-  <si>
-    <t>141614301</t>
-  </si>
-  <si>
-    <t>4028381</t>
-  </si>
-  <si>
-    <t>drug kinetics</t>
-  </si>
-  <si>
-    <t>151203706</t>
-  </si>
-  <si>
-    <t>199678427</t>
-  </si>
-  <si>
-    <t>151203889</t>
-  </si>
-  <si>
-    <t>155514554</t>
-  </si>
-  <si>
-    <t>164034640</t>
-  </si>
-  <si>
-    <t>4027143</t>
-  </si>
-  <si>
-    <t>obstruction</t>
-  </si>
-  <si>
-    <t>181270845</t>
-  </si>
-  <si>
-    <t>170846747</t>
-  </si>
-  <si>
-    <t>152784250</t>
-  </si>
-  <si>
-    <t>3811276</t>
-  </si>
-  <si>
-    <t>favor</t>
-  </si>
-  <si>
-    <t>190013382</t>
-  </si>
-  <si>
-    <t>158934840</t>
-  </si>
-  <si>
-    <t>192562201</t>
-  </si>
-  <si>
-    <t>3805896</t>
-  </si>
-  <si>
-    <t>physical findings</t>
-  </si>
-  <si>
-    <t>196912535</t>
-  </si>
-  <si>
-    <t>157806846</t>
-  </si>
-  <si>
-    <t>157504542</t>
-  </si>
-  <si>
-    <t>3192698</t>
-  </si>
-  <si>
-    <t>smooth muscle (tissue)</t>
-  </si>
-  <si>
-    <t>161693840</t>
-  </si>
-  <si>
-    <t>177665840</t>
+    <t>86429107</t>
+  </si>
+  <si>
+    <t>54166028</t>
+  </si>
+  <si>
+    <t>91463712</t>
+  </si>
+  <si>
+    <t>73399488</t>
+  </si>
+  <si>
+    <t>56275734</t>
+  </si>
+  <si>
+    <t>55009694</t>
+  </si>
+  <si>
+    <t>67033479</t>
+  </si>
+  <si>
+    <t>84875596</t>
   </si>
   <si>
     <t>3117088</t>
@@ -1922,16 +2018,16 @@
     <t>mean blood pressure</t>
   </si>
   <si>
-    <t>135911649</t>
-  </si>
-  <si>
-    <t>138458638</t>
-  </si>
-  <si>
-    <t>173618853</t>
-  </si>
-  <si>
-    <t>123059978</t>
+    <t>72115648</t>
+  </si>
+  <si>
+    <t>69559167</t>
+  </si>
+  <si>
+    <t>107399293</t>
+  </si>
+  <si>
+    <t>60161645</t>
   </si>
   <si>
     <t>2875245</t>
@@ -1940,19 +2036,19 @@
     <t>stimulation procedure</t>
   </si>
   <si>
-    <t>187686394</t>
-  </si>
-  <si>
-    <t>138924392</t>
-  </si>
-  <si>
-    <t>126870718</t>
-  </si>
-  <si>
-    <t>132458305</t>
-  </si>
-  <si>
-    <t>122796192</t>
+    <t>121476450</t>
+  </si>
+  <si>
+    <t>60437467</t>
+  </si>
+  <si>
+    <t>72543955</t>
+  </si>
+  <si>
+    <t>66123552</t>
+  </si>
+  <si>
+    <t>59908719</t>
   </si>
   <si>
     <t>2824923</t>
@@ -1961,34 +2057,13 @@
     <t>zonal</t>
   </si>
   <si>
-    <t>133406862</t>
-  </si>
-  <si>
-    <t>123359397</t>
-  </si>
-  <si>
-    <t>199850187</t>
-  </si>
-  <si>
-    <t>281347</t>
-  </si>
-  <si>
-    <t>long-term care</t>
-  </si>
-  <si>
-    <t>181873393</t>
-  </si>
-  <si>
-    <t>is method of</t>
-  </si>
-  <si>
-    <t>171476339</t>
-  </si>
-  <si>
-    <t>165984359</t>
-  </si>
-  <si>
-    <t>177342520</t>
+    <t>66919597</t>
+  </si>
+  <si>
+    <t>56917682</t>
+  </si>
+  <si>
+    <t>133657489</t>
   </si>
   <si>
     <t>277130</t>
@@ -1997,10 +2072,10 @@
     <t>new zealand rabbits</t>
   </si>
   <si>
-    <t>180084331</t>
-  </si>
-  <si>
-    <t>123904277</t>
+    <t>113879700</t>
+  </si>
+  <si>
+    <t>57535937</t>
   </si>
   <si>
     <t>2636968</t>
@@ -2009,13 +2084,13 @@
     <t>therapeutic agent (substance)</t>
   </si>
   <si>
-    <t>196917469</t>
-  </si>
-  <si>
-    <t>193254595</t>
-  </si>
-  <si>
-    <t>147394209</t>
+    <t>130763770</t>
+  </si>
+  <si>
+    <t>127044365</t>
+  </si>
+  <si>
+    <t>80927207</t>
   </si>
   <si>
     <t>228805</t>
@@ -2024,10 +2099,10 @@
     <t>up-regulation (physiology)</t>
   </si>
   <si>
-    <t>187679212</t>
-  </si>
-  <si>
-    <t>175800292</t>
+    <t>121535367</t>
+  </si>
+  <si>
+    <t>109574095</t>
   </si>
   <si>
     <t>222848</t>
@@ -2036,13 +2111,13 @@
     <t>analgesics</t>
   </si>
   <si>
-    <t>185455493</t>
-  </si>
-  <si>
-    <t>175198841</t>
-  </si>
-  <si>
-    <t>136402632</t>
+    <t>109008026</t>
+  </si>
+  <si>
+    <t>119258014</t>
+  </si>
+  <si>
+    <t>70003198</t>
   </si>
   <si>
     <t>217103</t>
@@ -2051,16 +2126,16 @@
     <t>putative uncharacterized protein encoded by mir7-3hg (homo sapiens)</t>
   </si>
   <si>
-    <t>135478081</t>
+    <t>69029671</t>
   </si>
   <si>
     <t>does not interact with</t>
   </si>
   <si>
-    <t>133137610</t>
-  </si>
-  <si>
-    <t>157223894</t>
+    <t>91032042</t>
+  </si>
+  <si>
+    <t>66805639</t>
   </si>
   <si>
     <t>209003</t>
@@ -2069,31 +2144,10 @@
     <t>selenium</t>
   </si>
   <si>
-    <t>161464916</t>
-  </si>
-  <si>
-    <t>165409149</t>
-  </si>
-  <si>
-    <t>1074935</t>
-  </si>
-  <si>
-    <t>traumatic injury</t>
-  </si>
-  <si>
-    <t>195180568</t>
-  </si>
-  <si>
-    <t>159952387</t>
-  </si>
-  <si>
-    <t>168765271</t>
-  </si>
-  <si>
-    <t>122775720</t>
-  </si>
-  <si>
-    <t>131687219</t>
+    <t>95275981</t>
+  </si>
+  <si>
+    <t>99175173</t>
   </si>
 </sst>
 </file>
@@ -2298,7 +2352,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>307.0</v>
+        <v>120.0</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -2345,58 +2399,10 @@
       <c r="P2" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" t="s">
-        <v>65</v>
-      </c>
-      <c r="R2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S2" t="s">
-        <v>67</v>
-      </c>
-      <c r="T2" t="s">
-        <v>68</v>
-      </c>
-      <c r="U2" t="s">
-        <v>69</v>
-      </c>
-      <c r="V2" t="s">
-        <v>66</v>
-      </c>
-      <c r="W2" t="s">
-        <v>70</v>
-      </c>
-      <c r="X2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>226.0</v>
+        <v>95.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -2408,10 +2414,10 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
         <v>55</v>
@@ -2426,27 +2432,39 @@
         <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="L3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="O3" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="P3" t="s">
-        <v>75</v>
+        <v>71</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" t="s">
+        <v>73</v>
+      </c>
+      <c r="T3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>123.0</v>
+        <v>74.0</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -2458,10 +2476,10 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s">
         <v>55</v>
@@ -2476,33 +2494,27 @@
         <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="O4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="P4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>91</v>
-      </c>
-      <c r="R4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>47.0</v>
+        <v>56.0</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -2514,10 +2526,10 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
         <v>55</v>
@@ -2532,39 +2544,33 @@
         <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="M5" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O5" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="Q5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="R5" t="s">
-        <v>75</v>
-      </c>
-      <c r="S5" t="s">
-        <v>99</v>
-      </c>
-      <c r="T5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>44.0</v>
+        <v>37.0</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -2576,13 +2582,13 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
         <v>56</v>
@@ -2594,58 +2600,16 @@
         <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="N6" t="s">
-        <v>104</v>
-      </c>
-      <c r="O6" t="s">
-        <v>106</v>
-      </c>
-      <c r="P6" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>108</v>
-      </c>
-      <c r="R6" t="s">
-        <v>109</v>
-      </c>
-      <c r="S6" t="s">
-        <v>110</v>
-      </c>
-      <c r="T6" t="s">
-        <v>68</v>
-      </c>
-      <c r="U6" t="s">
-        <v>111</v>
-      </c>
-      <c r="V6" t="s">
-        <v>107</v>
-      </c>
-      <c r="W6" t="s">
-        <v>112</v>
-      </c>
-      <c r="X6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
@@ -2662,13 +2626,13 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
         <v>56</v>
@@ -2680,21 +2644,63 @@
         <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="M7" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>97</v>
+      </c>
+      <c r="O7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>100</v>
+      </c>
+      <c r="R7" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T7" t="s">
+        <v>102</v>
+      </c>
+      <c r="U7" t="s">
+        <v>103</v>
+      </c>
+      <c r="V7" t="s">
+        <v>104</v>
+      </c>
+      <c r="W7" t="s">
+        <v>105</v>
+      </c>
+      <c r="X7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>37.0</v>
+        <v>31.0</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -2706,13 +2712,13 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
@@ -2724,63 +2730,39 @@
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L8" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="M8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="N8" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="O8" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="P8" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="Q8" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="R8" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="S8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="T8" t="s">
-        <v>130</v>
-      </c>
-      <c r="U8" t="s">
-        <v>131</v>
-      </c>
-      <c r="V8" t="s">
-        <v>132</v>
-      </c>
-      <c r="W8" t="s">
-        <v>133</v>
-      </c>
-      <c r="X8" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -2792,13 +2774,13 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="H9" t="s">
         <v>56</v>
@@ -2810,34 +2792,22 @@
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="M9" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="N9" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="P9" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>143</v>
-      </c>
-      <c r="R9" t="s">
-        <v>62</v>
-      </c>
-      <c r="S9" t="s">
-        <v>144</v>
-      </c>
-      <c r="T9" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
@@ -2854,13 +2824,13 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="F10" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>147</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
         <v>56</v>
@@ -2872,22 +2842,34 @@
         <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="M10" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="O10" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="P10" t="s">
-        <v>151</v>
+        <v>108</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>133</v>
+      </c>
+      <c r="R10" t="s">
+        <v>134</v>
+      </c>
+      <c r="S10" t="s">
+        <v>135</v>
+      </c>
+      <c r="T10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -2904,10 +2886,10 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="F11" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
         <v>58</v>
@@ -2922,16 +2904,22 @@
         <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="M11" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="N11" t="s">
-        <v>157</v>
+        <v>140</v>
+      </c>
+      <c r="O11" t="s">
+        <v>141</v>
+      </c>
+      <c r="P11" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="12">
@@ -2948,10 +2936,10 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="F12" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="G12" t="s">
         <v>58</v>
@@ -2966,16 +2954,16 @@
         <v>58</v>
       </c>
       <c r="K12" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="M12" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="N12" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13">
@@ -2992,10 +2980,10 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="F13" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
         <v>58</v>
@@ -3010,16 +2998,16 @@
         <v>58</v>
       </c>
       <c r="K13" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="M13" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="N13" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
@@ -3036,10 +3024,10 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="F14" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="G14" t="s">
         <v>58</v>
@@ -3054,21 +3042,21 @@
         <v>58</v>
       </c>
       <c r="K14" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="M14" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="N14" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
@@ -3080,10 +3068,10 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="F15" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
         <v>58</v>
@@ -3098,21 +3086,21 @@
         <v>58</v>
       </c>
       <c r="K15" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="M15" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="N15" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
@@ -3124,13 +3112,13 @@
         <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="F16" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
         <v>56</v>
@@ -3142,27 +3130,21 @@
         <v>58</v>
       </c>
       <c r="K16" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="L16" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="M16" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="N16" t="s">
-        <v>157</v>
-      </c>
-      <c r="O16" t="s">
-        <v>178</v>
-      </c>
-      <c r="P16" t="s">
-        <v>179</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
@@ -3174,13 +3156,13 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="F17" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="H17" t="s">
         <v>56</v>
@@ -3192,22 +3174,22 @@
         <v>58</v>
       </c>
       <c r="K17" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="M17" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="N17" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="O17" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="P17" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18">
@@ -3224,10 +3206,10 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="F18" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
         <v>58</v>
@@ -3242,39 +3224,21 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="M18" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="N18" t="s">
-        <v>130</v>
-      </c>
-      <c r="O18" t="s">
-        <v>189</v>
-      </c>
-      <c r="P18" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>190</v>
-      </c>
-      <c r="R18" t="s">
-        <v>134</v>
-      </c>
-      <c r="S18" t="s">
-        <v>191</v>
-      </c>
-      <c r="T18" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
@@ -3286,13 +3250,13 @@
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="F19" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="G19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
         <v>56</v>
@@ -3304,27 +3268,27 @@
         <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="M19" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="N19" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="O19" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="P19" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="B20" t="s">
         <v>50</v>
@@ -3336,13 +3300,13 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H20" t="s">
         <v>56</v>
@@ -3354,21 +3318,39 @@
         <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="L20" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="M20" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N20" t="s">
-        <v>75</v>
+        <v>102</v>
+      </c>
+      <c r="O20" t="s">
+        <v>181</v>
+      </c>
+      <c r="P20" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>182</v>
+      </c>
+      <c r="R20" t="s">
+        <v>108</v>
+      </c>
+      <c r="S20" t="s">
+        <v>183</v>
+      </c>
+      <c r="T20" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14.0</v>
+        <v>21.0</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
@@ -3380,10 +3362,10 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="G21" t="s">
         <v>55</v>
@@ -3398,39 +3380,27 @@
         <v>58</v>
       </c>
       <c r="K21" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="L21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M21" t="s">
+        <v>187</v>
+      </c>
+      <c r="N21" t="s">
         <v>62</v>
       </c>
-      <c r="M21" t="s">
-        <v>204</v>
-      </c>
-      <c r="N21" t="s">
-        <v>60</v>
-      </c>
       <c r="O21" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="P21" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>206</v>
-      </c>
-      <c r="R21" t="s">
-        <v>75</v>
-      </c>
-      <c r="S21" t="s">
-        <v>207</v>
-      </c>
-      <c r="T21" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
@@ -3442,13 +3412,13 @@
         <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="F22" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="G22" t="s">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="H22" t="s">
         <v>56</v>
@@ -3460,21 +3430,39 @@
         <v>58</v>
       </c>
       <c r="K22" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="L22" t="s">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="M22" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="N22" t="s">
+        <v>60</v>
+      </c>
+      <c r="O22" t="s">
+        <v>194</v>
+      </c>
+      <c r="P22" t="s">
         <v>62</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>195</v>
+      </c>
+      <c r="R22" t="s">
+        <v>79</v>
+      </c>
+      <c r="S22" t="s">
+        <v>196</v>
+      </c>
+      <c r="T22" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="B23" t="s">
         <v>50</v>
@@ -3486,10 +3474,10 @@
         <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="F23" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="G23" t="s">
         <v>55</v>
@@ -3504,21 +3492,21 @@
         <v>58</v>
       </c>
       <c r="K23" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="L23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M23" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="N23" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="B24" t="s">
         <v>50</v>
@@ -3530,13 +3518,13 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F24" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="G24" t="s">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="H24" t="s">
         <v>56</v>
@@ -3548,21 +3536,21 @@
         <v>58</v>
       </c>
       <c r="K24" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="L24" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="M24" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="N24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
@@ -3574,13 +3562,13 @@
         <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="F25" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="G25" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="H25" t="s">
         <v>56</v>
@@ -3592,111 +3580,21 @@
         <v>58</v>
       </c>
       <c r="K25" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="M25" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="N25" t="s">
-        <v>109</v>
-      </c>
-      <c r="O25" t="s">
-        <v>225</v>
-      </c>
-      <c r="P25" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>227</v>
-      </c>
-      <c r="R25" t="s">
-        <v>104</v>
-      </c>
-      <c r="S25" t="s">
-        <v>228</v>
-      </c>
-      <c r="T25" t="s">
-        <v>104</v>
-      </c>
-      <c r="U25" t="s">
-        <v>229</v>
-      </c>
-      <c r="V25" t="s">
-        <v>68</v>
-      </c>
-      <c r="W25" t="s">
-        <v>230</v>
-      </c>
-      <c r="X25" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>232</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>233</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>234</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>235</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>236</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>237</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>238</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>239</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>240</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>241</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>242</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>243</v>
-      </c>
-      <c r="AR25" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="B26" t="s">
         <v>50</v>
@@ -3708,13 +3606,13 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="F26" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="G26" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H26" t="s">
         <v>56</v>
@@ -3726,21 +3624,81 @@
         <v>58</v>
       </c>
       <c r="K26" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="L26" t="s">
-        <v>247</v>
+        <v>106</v>
       </c>
       <c r="M26" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="N26" t="s">
-        <v>75</v>
+        <v>95</v>
+      </c>
+      <c r="O26" t="s">
+        <v>214</v>
+      </c>
+      <c r="P26" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>215</v>
+      </c>
+      <c r="R26" t="s">
+        <v>216</v>
+      </c>
+      <c r="S26" t="s">
+        <v>217</v>
+      </c>
+      <c r="T26" t="s">
+        <v>99</v>
+      </c>
+      <c r="U26" t="s">
+        <v>218</v>
+      </c>
+      <c r="V26" t="s">
+        <v>102</v>
+      </c>
+      <c r="W26" t="s">
+        <v>219</v>
+      </c>
+      <c r="X26" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="B27" t="s">
         <v>50</v>
@@ -3752,13 +3710,13 @@
         <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="F27" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="G27" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="H27" t="s">
         <v>56</v>
@@ -3770,33 +3728,21 @@
         <v>58</v>
       </c>
       <c r="K27" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s">
-        <v>252</v>
+        <v>115</v>
       </c>
       <c r="M27" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="N27" t="s">
-        <v>247</v>
-      </c>
-      <c r="O27" t="s">
-        <v>254</v>
-      </c>
-      <c r="P27" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>255</v>
-      </c>
-      <c r="R27" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="B28" t="s">
         <v>50</v>
@@ -3808,10 +3754,10 @@
         <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="F28" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="G28" t="s">
         <v>55</v>
@@ -3826,21 +3772,21 @@
         <v>58</v>
       </c>
       <c r="K28" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="L28" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="M28" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="N28" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="B29" t="s">
         <v>50</v>
@@ -3852,13 +3798,13 @@
         <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="F29" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="G29" t="s">
-        <v>52</v>
+        <v>235</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
@@ -3870,33 +3816,27 @@
         <v>58</v>
       </c>
       <c r="K29" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="L29" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="M29" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="N29" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="O29" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="P29" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>265</v>
-      </c>
-      <c r="R29" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="B30" t="s">
         <v>50</v>
@@ -3908,13 +3848,13 @@
         <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="F30" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="G30" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H30" t="s">
         <v>56</v>
@@ -3926,123 +3866,21 @@
         <v>58</v>
       </c>
       <c r="K30" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="L30" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="M30" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="N30" t="s">
-        <v>83</v>
-      </c>
-      <c r="O30" t="s">
-        <v>270</v>
-      </c>
-      <c r="P30" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>271</v>
-      </c>
-      <c r="R30" t="s">
-        <v>137</v>
-      </c>
-      <c r="S30" t="s">
-        <v>272</v>
-      </c>
-      <c r="T30" t="s">
-        <v>104</v>
-      </c>
-      <c r="U30" t="s">
-        <v>273</v>
-      </c>
-      <c r="V30" t="s">
-        <v>109</v>
-      </c>
-      <c r="W30" t="s">
-        <v>274</v>
-      </c>
-      <c r="X30" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>276</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>278</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>279</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>242</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>280</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>281</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>282</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>114</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>283</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM30" t="s">
-        <v>284</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>231</v>
-      </c>
-      <c r="AO30" t="s">
-        <v>285</v>
-      </c>
-      <c r="AP30" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>286</v>
-      </c>
-      <c r="AR30" t="s">
-        <v>126</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>287</v>
-      </c>
-      <c r="AT30" t="s">
-        <v>151</v>
-      </c>
-      <c r="AU30" t="s">
-        <v>288</v>
-      </c>
-      <c r="AV30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B31" t="s">
         <v>50</v>
@@ -4054,13 +3892,13 @@
         <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="F31" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="G31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H31" t="s">
         <v>56</v>
@@ -4072,34 +3910,28 @@
         <v>58</v>
       </c>
       <c r="K31" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="L31" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="M31" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="N31" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="O31" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="P31" t="s">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="Q31" t="s">
-        <v>294</v>
+        <v>250</v>
       </c>
       <c r="R31" t="s">
-        <v>71</v>
-      </c>
-      <c r="S31" t="s">
-        <v>295</v>
-      </c>
-      <c r="T31" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32">
@@ -4116,13 +3948,13 @@
         <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>296</v>
+        <v>251</v>
       </c>
       <c r="F32" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="G32" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H32" t="s">
         <v>56</v>
@@ -4134,40 +3966,58 @@
         <v>58</v>
       </c>
       <c r="K32" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="L32" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="M32" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="N32" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="O32" t="s">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="P32" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="Q32" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="R32" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="S32" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="T32" t="s">
-        <v>62</v>
+        <v>257</v>
       </c>
       <c r="U32" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="V32" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W32" t="s">
+        <v>261</v>
+      </c>
+      <c r="X32" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="33">
@@ -4184,13 +4034,13 @@
         <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="F33" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="G33" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H33" t="s">
         <v>56</v>
@@ -4202,22 +4052,106 @@
         <v>58</v>
       </c>
       <c r="K33" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="L33" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="M33" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="N33" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="O33" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="P33" t="s">
-        <v>62</v>
+        <v>216</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>269</v>
+      </c>
+      <c r="R33" t="s">
+        <v>106</v>
+      </c>
+      <c r="S33" t="s">
+        <v>270</v>
+      </c>
+      <c r="T33" t="s">
+        <v>108</v>
+      </c>
+      <c r="U33" t="s">
+        <v>271</v>
+      </c>
+      <c r="V33" t="s">
+        <v>102</v>
+      </c>
+      <c r="W33" t="s">
+        <v>272</v>
+      </c>
+      <c r="X33" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>278</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>280</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>281</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>282</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>283</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>284</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="34">
@@ -4234,13 +4168,13 @@
         <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="F34" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="G34" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="H34" t="s">
         <v>56</v>
@@ -4252,22 +4186,28 @@
         <v>58</v>
       </c>
       <c r="K34" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="M34" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="N34" t="s">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="O34" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="P34" t="s">
-        <v>75</v>
+        <v>106</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>290</v>
+      </c>
+      <c r="R34" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="35">
@@ -4284,13 +4224,13 @@
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="F35" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="G35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H35" t="s">
         <v>56</v>
@@ -4302,27 +4242,27 @@
         <v>58</v>
       </c>
       <c r="K35" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="L35" t="s">
+        <v>71</v>
+      </c>
+      <c r="M35" t="s">
+        <v>294</v>
+      </c>
+      <c r="N35" t="s">
+        <v>71</v>
+      </c>
+      <c r="O35" t="s">
+        <v>295</v>
+      </c>
+      <c r="P35" t="s">
         <v>60</v>
-      </c>
-      <c r="M35" t="s">
-        <v>318</v>
-      </c>
-      <c r="N35" t="s">
-        <v>319</v>
-      </c>
-      <c r="O35" t="s">
-        <v>320</v>
-      </c>
-      <c r="P35" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B36" t="s">
         <v>50</v>
@@ -4334,13 +4274,13 @@
         <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="F36" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="G36" t="s">
-        <v>323</v>
+        <v>113</v>
       </c>
       <c r="H36" t="s">
         <v>56</v>
@@ -4352,27 +4292,111 @@
         <v>58</v>
       </c>
       <c r="K36" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="L36" t="s">
-        <v>281</v>
+        <v>117</v>
       </c>
       <c r="M36" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="N36" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="O36" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="P36" t="s">
-        <v>130</v>
+        <v>115</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>301</v>
+      </c>
+      <c r="R36" t="s">
+        <v>254</v>
+      </c>
+      <c r="S36" t="s">
+        <v>302</v>
+      </c>
+      <c r="T36" t="s">
+        <v>117</v>
+      </c>
+      <c r="U36" t="s">
+        <v>303</v>
+      </c>
+      <c r="V36" t="s">
+        <v>304</v>
+      </c>
+      <c r="W36" t="s">
+        <v>305</v>
+      </c>
+      <c r="X36" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>308</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>309</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>310</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>311</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>249</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>313</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>314</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>315</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>316</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>317</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B37" t="s">
         <v>50</v>
@@ -4384,45 +4408,141 @@
         <v>52</v>
       </c>
       <c r="E37" t="s">
+        <v>318</v>
+      </c>
+      <c r="F37" t="s">
+        <v>319</v>
+      </c>
+      <c r="G37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" t="s">
+        <v>57</v>
+      </c>
+      <c r="J37" t="s">
+        <v>58</v>
+      </c>
+      <c r="K37" t="s">
+        <v>320</v>
+      </c>
+      <c r="L37" t="s">
+        <v>71</v>
+      </c>
+      <c r="M37" t="s">
+        <v>321</v>
+      </c>
+      <c r="N37" t="s">
+        <v>102</v>
+      </c>
+      <c r="O37" t="s">
+        <v>322</v>
+      </c>
+      <c r="P37" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>323</v>
+      </c>
+      <c r="R37" t="s">
+        <v>104</v>
+      </c>
+      <c r="S37" t="s">
+        <v>324</v>
+      </c>
+      <c r="T37" t="s">
+        <v>69</v>
+      </c>
+      <c r="U37" t="s">
+        <v>325</v>
+      </c>
+      <c r="V37" t="s">
+        <v>71</v>
+      </c>
+      <c r="W37" t="s">
+        <v>326</v>
+      </c>
+      <c r="X37" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y37" t="s">
         <v>327</v>
       </c>
-      <c r="F37" t="s">
+      <c r="Z37" t="s">
         <v>328</v>
       </c>
-      <c r="G37" t="s">
-        <v>147</v>
-      </c>
-      <c r="H37" t="s">
-        <v>56</v>
-      </c>
-      <c r="I37" t="s">
-        <v>57</v>
-      </c>
-      <c r="J37" t="s">
-        <v>58</v>
-      </c>
-      <c r="K37" t="s">
+      <c r="AA37" t="s">
         <v>329</v>
       </c>
-      <c r="L37" t="s">
-        <v>252</v>
-      </c>
-      <c r="M37" t="s">
+      <c r="AB37" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC37" t="s">
         <v>330</v>
       </c>
-      <c r="N37" t="s">
-        <v>247</v>
-      </c>
-      <c r="O37" t="s">
+      <c r="AD37" t="s">
         <v>331</v>
       </c>
-      <c r="P37" t="s">
-        <v>75</v>
+      <c r="AE37" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>333</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>334</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>192</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>335</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>337</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>338</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>249</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>339</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>340</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B38" t="s">
         <v>50</v>
@@ -4434,69 +4554,75 @@
         <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="F38" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="G38" t="s">
+        <v>343</v>
+      </c>
+      <c r="H38" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" t="s">
+        <v>58</v>
+      </c>
+      <c r="K38" t="s">
+        <v>344</v>
+      </c>
+      <c r="L38" t="s">
+        <v>95</v>
+      </c>
+      <c r="M38" t="s">
+        <v>345</v>
+      </c>
+      <c r="N38" t="s">
+        <v>60</v>
+      </c>
+      <c r="O38" t="s">
+        <v>346</v>
+      </c>
+      <c r="P38" t="s">
         <v>102</v>
       </c>
-      <c r="H38" t="s">
-        <v>56</v>
-      </c>
-      <c r="I38" t="s">
-        <v>57</v>
-      </c>
-      <c r="J38" t="s">
-        <v>58</v>
-      </c>
-      <c r="K38" t="s">
-        <v>334</v>
-      </c>
-      <c r="L38" t="s">
-        <v>137</v>
-      </c>
-      <c r="M38" t="s">
-        <v>335</v>
-      </c>
-      <c r="N38" t="s">
-        <v>137</v>
-      </c>
-      <c r="O38" t="s">
-        <v>336</v>
-      </c>
-      <c r="P38" t="s">
-        <v>126</v>
-      </c>
       <c r="Q38" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="R38" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="S38" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="T38" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="U38" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="V38" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="W38" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="X38" t="s">
-        <v>242</v>
+        <v>142</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B39" t="s">
         <v>50</v>
@@ -4508,13 +4634,13 @@
         <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="F39" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="G39" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="H39" t="s">
         <v>56</v>
@@ -4526,16 +4652,28 @@
         <v>58</v>
       </c>
       <c r="K39" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="L39" t="s">
-        <v>68</v>
+        <v>355</v>
       </c>
       <c r="M39" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="N39" t="s">
-        <v>319</v>
+        <v>84</v>
+      </c>
+      <c r="O39" t="s">
+        <v>357</v>
+      </c>
+      <c r="P39" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>358</v>
+      </c>
+      <c r="R39" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="40">
@@ -4552,13 +4690,13 @@
         <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="F40" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="G40" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="H40" t="s">
         <v>56</v>
@@ -4570,16 +4708,22 @@
         <v>58</v>
       </c>
       <c r="K40" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="L40" t="s">
-        <v>62</v>
+        <v>331</v>
       </c>
       <c r="M40" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="N40" t="s">
-        <v>66</v>
+        <v>95</v>
+      </c>
+      <c r="O40" t="s">
+        <v>364</v>
+      </c>
+      <c r="P40" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="41">
@@ -4596,13 +4740,13 @@
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="F41" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="G41" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="H41" t="s">
         <v>56</v>
@@ -4614,28 +4758,22 @@
         <v>58</v>
       </c>
       <c r="K41" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="L41" t="s">
-        <v>62</v>
+        <v>355</v>
       </c>
       <c r="M41" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="N41" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="O41" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="P41" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>355</v>
-      </c>
-      <c r="R41" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42">
@@ -4652,13 +4790,13 @@
         <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="F42" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="G42" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="H42" t="s">
         <v>56</v>
@@ -4670,27 +4808,51 @@
         <v>58</v>
       </c>
       <c r="K42" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="L42" t="s">
+        <v>104</v>
+      </c>
+      <c r="M42" t="s">
+        <v>373</v>
+      </c>
+      <c r="N42" t="s">
+        <v>104</v>
+      </c>
+      <c r="O42" t="s">
+        <v>374</v>
+      </c>
+      <c r="P42" t="s">
         <v>60</v>
       </c>
-      <c r="M42" t="s">
-        <v>359</v>
-      </c>
-      <c r="N42" t="s">
-        <v>75</v>
-      </c>
-      <c r="O42" t="s">
-        <v>360</v>
-      </c>
-      <c r="P42" t="s">
-        <v>66</v>
+      <c r="Q42" t="s">
+        <v>375</v>
+      </c>
+      <c r="R42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S42" t="s">
+        <v>376</v>
+      </c>
+      <c r="T42" t="s">
+        <v>216</v>
+      </c>
+      <c r="U42" t="s">
+        <v>377</v>
+      </c>
+      <c r="V42" t="s">
+        <v>99</v>
+      </c>
+      <c r="W42" t="s">
+        <v>378</v>
+      </c>
+      <c r="X42" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B43" t="s">
         <v>50</v>
@@ -4702,13 +4864,13 @@
         <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="F43" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="G43" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="H43" t="s">
         <v>56</v>
@@ -4720,33 +4882,39 @@
         <v>58</v>
       </c>
       <c r="K43" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="L43" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="M43" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="N43" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="O43" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="P43" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="Q43" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="R43" t="s">
-        <v>242</v>
+        <v>64</v>
+      </c>
+      <c r="S43" t="s">
+        <v>385</v>
+      </c>
+      <c r="T43" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B44" t="s">
         <v>50</v>
@@ -4758,13 +4926,13 @@
         <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="F44" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="G44" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="H44" t="s">
         <v>56</v>
@@ -4776,33 +4944,21 @@
         <v>58</v>
       </c>
       <c r="K44" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="L44" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="M44" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="N44" t="s">
-        <v>247</v>
-      </c>
-      <c r="O44" t="s">
-        <v>371</v>
-      </c>
-      <c r="P44" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>372</v>
-      </c>
-      <c r="R44" t="s">
-        <v>75</v>
+        <v>390</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B45" t="s">
         <v>50</v>
@@ -4814,13 +4970,13 @@
         <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="F45" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="G45" t="s">
-        <v>147</v>
+        <v>343</v>
       </c>
       <c r="H45" t="s">
         <v>56</v>
@@ -4832,27 +4988,21 @@
         <v>58</v>
       </c>
       <c r="K45" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="L45" t="s">
-        <v>247</v>
+        <v>60</v>
       </c>
       <c r="M45" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="N45" t="s">
-        <v>281</v>
-      </c>
-      <c r="O45" t="s">
-        <v>377</v>
-      </c>
-      <c r="P45" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B46" t="s">
         <v>50</v>
@@ -4864,13 +5014,13 @@
         <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="F46" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="G46" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H46" t="s">
         <v>56</v>
@@ -4882,75 +5032,33 @@
         <v>58</v>
       </c>
       <c r="K46" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="L46" t="s">
-        <v>381</v>
+        <v>60</v>
       </c>
       <c r="M46" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="N46" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="O46" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="P46" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="Q46" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="R46" t="s">
-        <v>62</v>
-      </c>
-      <c r="S46" t="s">
-        <v>385</v>
-      </c>
-      <c r="T46" t="s">
-        <v>386</v>
-      </c>
-      <c r="U46" t="s">
-        <v>387</v>
-      </c>
-      <c r="V46" t="s">
-        <v>116</v>
-      </c>
-      <c r="W46" t="s">
-        <v>388</v>
-      </c>
-      <c r="X46" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>389</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>390</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>391</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>392</v>
-      </c>
-      <c r="AF46" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B47" t="s">
         <v>50</v>
@@ -4962,13 +5070,13 @@
         <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="F47" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="G47" t="s">
-        <v>323</v>
+        <v>55</v>
       </c>
       <c r="H47" t="s">
         <v>56</v>
@@ -4980,22 +5088,22 @@
         <v>58</v>
       </c>
       <c r="K47" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="L47" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M47" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="N47" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="O47" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="P47" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48">
@@ -5012,13 +5120,13 @@
         <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="F48" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="G48" t="s">
-        <v>400</v>
+        <v>123</v>
       </c>
       <c r="H48" t="s">
         <v>56</v>
@@ -5030,27 +5138,27 @@
         <v>58</v>
       </c>
       <c r="K48" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="L48" t="s">
-        <v>134</v>
+        <v>331</v>
       </c>
       <c r="M48" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="N48" t="s">
-        <v>403</v>
+        <v>84</v>
       </c>
       <c r="O48" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="P48" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -5062,13 +5170,13 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="F49" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="G49" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H49" t="s">
         <v>56</v>
@@ -5080,81 +5188,75 @@
         <v>58</v>
       </c>
       <c r="K49" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="L49" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="M49" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="N49" t="s">
-        <v>116</v>
+        <v>415</v>
       </c>
       <c r="O49" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="P49" t="s">
-        <v>242</v>
+        <v>62</v>
       </c>
       <c r="Q49" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="R49" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="S49" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="T49" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="U49" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="V49" t="s">
-        <v>137</v>
+        <v>310</v>
       </c>
       <c r="W49" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="X49" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="Y49" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="Z49" t="s">
-        <v>116</v>
+        <v>422</v>
       </c>
       <c r="AA49" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="AB49" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AC49" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="AD49" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AE49" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="AF49" t="s">
-        <v>157</v>
-      </c>
-      <c r="AG49" t="s">
-        <v>418</v>
-      </c>
-      <c r="AH49" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B50" t="s">
         <v>50</v>
@@ -5166,13 +5268,13 @@
         <v>52</v>
       </c>
       <c r="E50" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="F50" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="G50" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="H50" t="s">
         <v>56</v>
@@ -5184,57 +5286,51 @@
         <v>58</v>
       </c>
       <c r="K50" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="L50" t="s">
+        <v>115</v>
+      </c>
+      <c r="M50" t="s">
+        <v>429</v>
+      </c>
+      <c r="N50" t="s">
+        <v>216</v>
+      </c>
+      <c r="O50" t="s">
+        <v>430</v>
+      </c>
+      <c r="P50" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>431</v>
+      </c>
+      <c r="R50" t="s">
+        <v>106</v>
+      </c>
+      <c r="S50" t="s">
+        <v>432</v>
+      </c>
+      <c r="T50" t="s">
+        <v>99</v>
+      </c>
+      <c r="U50" t="s">
+        <v>433</v>
+      </c>
+      <c r="V50" t="s">
         <v>95</v>
       </c>
-      <c r="M50" t="s">
-        <v>422</v>
-      </c>
-      <c r="N50" t="s">
-        <v>66</v>
-      </c>
-      <c r="O50" t="s">
-        <v>423</v>
-      </c>
-      <c r="P50" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>424</v>
-      </c>
-      <c r="R50" t="s">
-        <v>77</v>
-      </c>
-      <c r="S50" t="s">
-        <v>425</v>
-      </c>
-      <c r="T50" t="s">
-        <v>242</v>
-      </c>
-      <c r="U50" t="s">
-        <v>426</v>
-      </c>
-      <c r="V50" t="s">
-        <v>134</v>
-      </c>
       <c r="W50" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="X50" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>428</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B51" t="s">
         <v>50</v>
@@ -5246,13 +5342,13 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="F51" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="G51" t="s">
-        <v>52</v>
+        <v>361</v>
       </c>
       <c r="H51" t="s">
         <v>56</v>
@@ -5264,21 +5360,27 @@
         <v>58</v>
       </c>
       <c r="K51" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="L51" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="M51" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="N51" t="s">
-        <v>62</v>
+        <v>95</v>
+      </c>
+      <c r="O51" t="s">
+        <v>439</v>
+      </c>
+      <c r="P51" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B52" t="s">
         <v>50</v>
@@ -5290,13 +5392,13 @@
         <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="F52" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="G52" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="H52" t="s">
         <v>56</v>
@@ -5308,27 +5410,45 @@
         <v>58</v>
       </c>
       <c r="K52" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="L52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M52" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="N52" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="O52" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="P52" t="s">
-        <v>62</v>
+        <v>95</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>445</v>
+      </c>
+      <c r="R52" t="s">
+        <v>106</v>
+      </c>
+      <c r="S52" t="s">
+        <v>446</v>
+      </c>
+      <c r="T52" t="s">
+        <v>310</v>
+      </c>
+      <c r="U52" t="s">
+        <v>447</v>
+      </c>
+      <c r="V52" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B53" t="s">
         <v>50</v>
@@ -5340,13 +5460,13 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="F53" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="G53" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H53" t="s">
         <v>56</v>
@@ -5358,27 +5478,39 @@
         <v>58</v>
       </c>
       <c r="K53" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="L53" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="M53" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="N53" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="O53" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="P53" t="s">
-        <v>134</v>
+        <v>102</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>453</v>
+      </c>
+      <c r="R53" t="s">
+        <v>102</v>
+      </c>
+      <c r="S53" t="s">
+        <v>454</v>
+      </c>
+      <c r="T53" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B54" t="s">
         <v>50</v>
@@ -5390,13 +5522,13 @@
         <v>52</v>
       </c>
       <c r="E54" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="F54" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="G54" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H54" t="s">
         <v>56</v>
@@ -5408,21 +5540,21 @@
         <v>58</v>
       </c>
       <c r="K54" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="L54" t="s">
-        <v>281</v>
+        <v>71</v>
       </c>
       <c r="M54" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="N54" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B55" t="s">
         <v>50</v>
@@ -5434,13 +5566,13 @@
         <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="F55" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="G55" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="H55" t="s">
         <v>56</v>
@@ -5452,16 +5584,28 @@
         <v>58</v>
       </c>
       <c r="K55" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="L55" t="s">
-        <v>247</v>
+        <v>115</v>
       </c>
       <c r="M55" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="N55" t="s">
-        <v>130</v>
+        <v>463</v>
+      </c>
+      <c r="O55" t="s">
+        <v>464</v>
+      </c>
+      <c r="P55" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>465</v>
+      </c>
+      <c r="R55" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="56">
@@ -5478,13 +5622,13 @@
         <v>52</v>
       </c>
       <c r="E56" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="F56" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="G56" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H56" t="s">
         <v>56</v>
@@ -5496,34 +5640,22 @@
         <v>58</v>
       </c>
       <c r="K56" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="L56" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="M56" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="N56" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="O56" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="P56" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>456</v>
-      </c>
-      <c r="R56" t="s">
-        <v>134</v>
-      </c>
-      <c r="S56" t="s">
-        <v>457</v>
-      </c>
-      <c r="T56" t="s">
-        <v>242</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57">
@@ -5540,13 +5672,13 @@
         <v>52</v>
       </c>
       <c r="E57" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="F57" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="G57" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H57" t="s">
         <v>56</v>
@@ -5558,34 +5690,16 @@
         <v>58</v>
       </c>
       <c r="K57" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="L57" t="s">
-        <v>104</v>
+        <v>331</v>
       </c>
       <c r="M57" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="N57" t="s">
-        <v>126</v>
-      </c>
-      <c r="O57" t="s">
-        <v>462</v>
-      </c>
-      <c r="P57" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>463</v>
-      </c>
-      <c r="R57" t="s">
-        <v>62</v>
-      </c>
-      <c r="S57" t="s">
-        <v>464</v>
-      </c>
-      <c r="T57" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58">
@@ -5602,13 +5716,13 @@
         <v>52</v>
       </c>
       <c r="E58" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="F58" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="G58" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="H58" t="s">
         <v>56</v>
@@ -5620,34 +5734,16 @@
         <v>58</v>
       </c>
       <c r="K58" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="L58" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="M58" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="N58" t="s">
-        <v>66</v>
-      </c>
-      <c r="O58" t="s">
-        <v>469</v>
-      </c>
-      <c r="P58" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>470</v>
-      </c>
-      <c r="R58" t="s">
-        <v>132</v>
-      </c>
-      <c r="S58" t="s">
-        <v>471</v>
-      </c>
-      <c r="T58" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59">
@@ -5664,10 +5760,10 @@
         <v>52</v>
       </c>
       <c r="E59" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="F59" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="G59" t="s">
         <v>58</v>
@@ -5682,40 +5778,34 @@
         <v>58</v>
       </c>
       <c r="K59" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="L59" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="M59" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="N59" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="O59" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="P59" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="Q59" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="R59" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="S59" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="T59" t="s">
-        <v>157</v>
-      </c>
-      <c r="U59" t="s">
-        <v>479</v>
-      </c>
-      <c r="V59" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60">
@@ -5732,13 +5822,13 @@
         <v>52</v>
       </c>
       <c r="E60" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="F60" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="G60" t="s">
-        <v>147</v>
+        <v>361</v>
       </c>
       <c r="H60" t="s">
         <v>56</v>
@@ -5750,16 +5840,22 @@
         <v>58</v>
       </c>
       <c r="K60" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="L60" t="s">
-        <v>247</v>
+        <v>106</v>
       </c>
       <c r="M60" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="N60" t="s">
-        <v>75</v>
+        <v>142</v>
+      </c>
+      <c r="O60" t="s">
+        <v>490</v>
+      </c>
+      <c r="P60" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="61">
@@ -5776,13 +5872,13 @@
         <v>52</v>
       </c>
       <c r="E61" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="F61" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="G61" t="s">
-        <v>323</v>
+        <v>58</v>
       </c>
       <c r="H61" t="s">
         <v>56</v>
@@ -5794,16 +5890,40 @@
         <v>58</v>
       </c>
       <c r="K61" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="L61" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="M61" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="N61" t="s">
-        <v>75</v>
+        <v>127</v>
+      </c>
+      <c r="O61" t="s">
+        <v>495</v>
+      </c>
+      <c r="P61" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>496</v>
+      </c>
+      <c r="R61" t="s">
+        <v>108</v>
+      </c>
+      <c r="S61" t="s">
+        <v>497</v>
+      </c>
+      <c r="T61" t="s">
+        <v>142</v>
+      </c>
+      <c r="U61" t="s">
+        <v>498</v>
+      </c>
+      <c r="V61" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="62">
@@ -5820,64 +5940,88 @@
         <v>52</v>
       </c>
       <c r="E62" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="F62" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="G62" t="s">
+        <v>58</v>
+      </c>
+      <c r="H62" t="s">
+        <v>56</v>
+      </c>
+      <c r="I62" t="s">
+        <v>57</v>
+      </c>
+      <c r="J62" t="s">
+        <v>58</v>
+      </c>
+      <c r="K62" t="s">
+        <v>501</v>
+      </c>
+      <c r="L62" t="s">
+        <v>95</v>
+      </c>
+      <c r="M62" t="s">
+        <v>502</v>
+      </c>
+      <c r="N62" t="s">
+        <v>60</v>
+      </c>
+      <c r="O62" t="s">
+        <v>503</v>
+      </c>
+      <c r="P62" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>504</v>
+      </c>
+      <c r="R62" t="s">
+        <v>505</v>
+      </c>
+      <c r="S62" t="s">
+        <v>506</v>
+      </c>
+      <c r="T62" t="s">
+        <v>95</v>
+      </c>
+      <c r="U62" t="s">
+        <v>507</v>
+      </c>
+      <c r="V62" t="s">
         <v>102</v>
       </c>
-      <c r="H62" t="s">
-        <v>56</v>
-      </c>
-      <c r="I62" t="s">
-        <v>57</v>
-      </c>
-      <c r="J62" t="s">
-        <v>58</v>
-      </c>
-      <c r="K62" t="s">
-        <v>490</v>
-      </c>
-      <c r="L62" t="s">
-        <v>68</v>
-      </c>
-      <c r="M62" t="s">
-        <v>491</v>
-      </c>
-      <c r="N62" t="s">
-        <v>66</v>
-      </c>
-      <c r="O62" t="s">
-        <v>492</v>
-      </c>
-      <c r="P62" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>493</v>
-      </c>
-      <c r="R62" t="s">
-        <v>116</v>
-      </c>
-      <c r="S62" t="s">
-        <v>494</v>
-      </c>
-      <c r="T62" t="s">
-        <v>242</v>
-      </c>
-      <c r="U62" t="s">
-        <v>495</v>
-      </c>
-      <c r="V62" t="s">
-        <v>151</v>
-      </c>
       <c r="W62" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="X62" t="s">
-        <v>126</v>
+        <v>277</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>509</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>510</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>511</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>512</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="63">
@@ -5894,13 +6038,13 @@
         <v>52</v>
       </c>
       <c r="E63" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="F63" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="G63" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="H63" t="s">
         <v>56</v>
@@ -5912,16 +6056,16 @@
         <v>58</v>
       </c>
       <c r="K63" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="L63" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="M63" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="N63" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64">
@@ -5938,13 +6082,13 @@
         <v>52</v>
       </c>
       <c r="E64" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="F64" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="G64" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="H64" t="s">
         <v>56</v>
@@ -5956,52 +6100,16 @@
         <v>58</v>
       </c>
       <c r="K64" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="L64" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="M64" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="N64" t="s">
-        <v>66</v>
-      </c>
-      <c r="O64" t="s">
-        <v>505</v>
-      </c>
-      <c r="P64" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>506</v>
-      </c>
-      <c r="R64" t="s">
-        <v>134</v>
-      </c>
-      <c r="S64" t="s">
-        <v>507</v>
-      </c>
-      <c r="T64" t="s">
-        <v>157</v>
-      </c>
-      <c r="U64" t="s">
-        <v>508</v>
-      </c>
-      <c r="V64" t="s">
-        <v>116</v>
-      </c>
-      <c r="W64" t="s">
-        <v>509</v>
-      </c>
-      <c r="X64" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>510</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65">
@@ -6018,10 +6126,10 @@
         <v>52</v>
       </c>
       <c r="E65" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="F65" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="G65" t="s">
         <v>55</v>
@@ -6036,28 +6144,16 @@
         <v>58</v>
       </c>
       <c r="K65" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="L65" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M65" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="N65" t="s">
-        <v>75</v>
-      </c>
-      <c r="O65" t="s">
-        <v>515</v>
-      </c>
-      <c r="P65" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>516</v>
-      </c>
-      <c r="R65" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66">
@@ -6074,13 +6170,13 @@
         <v>52</v>
       </c>
       <c r="E66" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="F66" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="G66" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H66" t="s">
         <v>56</v>
@@ -6092,40 +6188,22 @@
         <v>58</v>
       </c>
       <c r="K66" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="L66" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="M66" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="N66" t="s">
-        <v>62</v>
+        <v>390</v>
       </c>
       <c r="O66" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="P66" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>522</v>
-      </c>
-      <c r="R66" t="s">
-        <v>66</v>
-      </c>
-      <c r="S66" t="s">
-        <v>523</v>
-      </c>
-      <c r="T66" t="s">
-        <v>95</v>
-      </c>
-      <c r="U66" t="s">
-        <v>524</v>
-      </c>
-      <c r="V66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67">
@@ -6142,13 +6220,13 @@
         <v>52</v>
       </c>
       <c r="E67" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="F67" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="G67" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H67" t="s">
         <v>56</v>
@@ -6160,57 +6238,33 @@
         <v>58</v>
       </c>
       <c r="K67" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="L67" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="M67" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="N67" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O67" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="P67" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="Q67" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="R67" t="s">
-        <v>116</v>
-      </c>
-      <c r="S67" t="s">
-        <v>531</v>
-      </c>
-      <c r="T67" t="s">
-        <v>134</v>
-      </c>
-      <c r="U67" t="s">
-        <v>532</v>
-      </c>
-      <c r="V67" t="s">
-        <v>134</v>
-      </c>
-      <c r="W67" t="s">
-        <v>533</v>
-      </c>
-      <c r="X67" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>534</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B68" t="s">
         <v>50</v>
@@ -6222,13 +6276,13 @@
         <v>52</v>
       </c>
       <c r="E68" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F68" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G68" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H68" t="s">
         <v>56</v>
@@ -6240,21 +6294,45 @@
         <v>58</v>
       </c>
       <c r="K68" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L68" t="s">
         <v>104</v>
       </c>
       <c r="M68" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N68" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="O68" t="s">
+        <v>540</v>
+      </c>
+      <c r="P68" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>542</v>
+      </c>
+      <c r="R68" t="s">
+        <v>99</v>
+      </c>
+      <c r="S68" t="s">
+        <v>543</v>
+      </c>
+      <c r="T68" t="s">
+        <v>60</v>
+      </c>
+      <c r="U68" t="s">
+        <v>544</v>
+      </c>
+      <c r="V68" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B69" t="s">
         <v>50</v>
@@ -6266,13 +6344,13 @@
         <v>52</v>
       </c>
       <c r="E69" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="F69" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="G69" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H69" t="s">
         <v>56</v>
@@ -6284,27 +6362,57 @@
         <v>58</v>
       </c>
       <c r="K69" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="L69" t="s">
-        <v>542</v>
+        <v>60</v>
       </c>
       <c r="M69" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="N69" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="O69" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="P69" t="s">
-        <v>62</v>
+        <v>95</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>550</v>
+      </c>
+      <c r="R69" t="s">
+        <v>95</v>
+      </c>
+      <c r="S69" t="s">
+        <v>551</v>
+      </c>
+      <c r="T69" t="s">
+        <v>102</v>
+      </c>
+      <c r="U69" t="s">
+        <v>552</v>
+      </c>
+      <c r="V69" t="s">
+        <v>106</v>
+      </c>
+      <c r="W69" t="s">
+        <v>553</v>
+      </c>
+      <c r="X69" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>554</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B70" t="s">
         <v>50</v>
@@ -6316,10 +6424,10 @@
         <v>52</v>
       </c>
       <c r="E70" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="F70" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="G70" t="s">
         <v>58</v>
@@ -6334,16 +6442,34 @@
         <v>58</v>
       </c>
       <c r="K70" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="L70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M70" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="N70" t="s">
-        <v>134</v>
+        <v>249</v>
+      </c>
+      <c r="O70" t="s">
+        <v>559</v>
+      </c>
+      <c r="P70" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>560</v>
+      </c>
+      <c r="R70" t="s">
+        <v>102</v>
+      </c>
+      <c r="S70" t="s">
+        <v>561</v>
+      </c>
+      <c r="T70" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="71">
@@ -6360,13 +6486,13 @@
         <v>52</v>
       </c>
       <c r="E71" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="F71" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="G71" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H71" t="s">
         <v>56</v>
@@ -6378,40 +6504,16 @@
         <v>58</v>
       </c>
       <c r="K71" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="L71" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="M71" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="N71" t="s">
-        <v>62</v>
-      </c>
-      <c r="O71" t="s">
-        <v>553</v>
-      </c>
-      <c r="P71" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>554</v>
-      </c>
-      <c r="R71" t="s">
-        <v>242</v>
-      </c>
-      <c r="S71" t="s">
-        <v>555</v>
-      </c>
-      <c r="T71" t="s">
-        <v>66</v>
-      </c>
-      <c r="U71" t="s">
-        <v>556</v>
-      </c>
-      <c r="V71" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72">
@@ -6428,10 +6530,10 @@
         <v>52</v>
       </c>
       <c r="E72" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="F72" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="G72" t="s">
         <v>52</v>
@@ -6446,16 +6548,22 @@
         <v>58</v>
       </c>
       <c r="K72" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="L72" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="M72" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="N72" t="s">
-        <v>66</v>
+        <v>570</v>
+      </c>
+      <c r="O72" t="s">
+        <v>571</v>
+      </c>
+      <c r="P72" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="73">
@@ -6472,46 +6580,34 @@
         <v>52</v>
       </c>
       <c r="E73" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="F73" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="G73" t="s">
+        <v>58</v>
+      </c>
+      <c r="H73" t="s">
+        <v>56</v>
+      </c>
+      <c r="I73" t="s">
+        <v>57</v>
+      </c>
+      <c r="J73" t="s">
+        <v>58</v>
+      </c>
+      <c r="K73" t="s">
+        <v>574</v>
+      </c>
+      <c r="L73" t="s">
+        <v>60</v>
+      </c>
+      <c r="M73" t="s">
+        <v>575</v>
+      </c>
+      <c r="N73" t="s">
         <v>102</v>
-      </c>
-      <c r="H73" t="s">
-        <v>56</v>
-      </c>
-      <c r="I73" t="s">
-        <v>57</v>
-      </c>
-      <c r="J73" t="s">
-        <v>58</v>
-      </c>
-      <c r="K73" t="s">
-        <v>563</v>
-      </c>
-      <c r="L73" t="s">
-        <v>564</v>
-      </c>
-      <c r="M73" t="s">
-        <v>565</v>
-      </c>
-      <c r="N73" t="s">
-        <v>114</v>
-      </c>
-      <c r="O73" t="s">
-        <v>566</v>
-      </c>
-      <c r="P73" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>567</v>
-      </c>
-      <c r="R73" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="74">
@@ -6528,13 +6624,13 @@
         <v>52</v>
       </c>
       <c r="E74" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="F74" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="G74" t="s">
-        <v>323</v>
+        <v>113</v>
       </c>
       <c r="H74" t="s">
         <v>56</v>
@@ -6546,22 +6642,40 @@
         <v>58</v>
       </c>
       <c r="K74" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="L74" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="M74" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="N74" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="O74" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="P74" t="s">
-        <v>66</v>
+        <v>310</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>581</v>
+      </c>
+      <c r="R74" t="s">
+        <v>106</v>
+      </c>
+      <c r="S74" t="s">
+        <v>582</v>
+      </c>
+      <c r="T74" t="s">
+        <v>60</v>
+      </c>
+      <c r="U74" t="s">
+        <v>583</v>
+      </c>
+      <c r="V74" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="75">
@@ -6578,10 +6692,10 @@
         <v>52</v>
       </c>
       <c r="E75" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="F75" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="G75" t="s">
         <v>52</v>
@@ -6596,28 +6710,16 @@
         <v>58</v>
       </c>
       <c r="K75" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="L75" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="M75" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="N75" t="s">
-        <v>126</v>
-      </c>
-      <c r="O75" t="s">
-        <v>577</v>
-      </c>
-      <c r="P75" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>578</v>
-      </c>
-      <c r="R75" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76">
@@ -6634,13 +6736,13 @@
         <v>52</v>
       </c>
       <c r="E76" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="F76" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="G76" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="H76" t="s">
         <v>56</v>
@@ -6652,16 +6754,28 @@
         <v>58</v>
       </c>
       <c r="K76" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="L76" t="s">
-        <v>83</v>
+        <v>591</v>
       </c>
       <c r="M76" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="N76" t="s">
-        <v>62</v>
+        <v>192</v>
+      </c>
+      <c r="O76" t="s">
+        <v>593</v>
+      </c>
+      <c r="P76" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>594</v>
+      </c>
+      <c r="R76" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="77">
@@ -6678,13 +6792,13 @@
         <v>52</v>
       </c>
       <c r="E77" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="F77" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="G77" t="s">
-        <v>102</v>
+        <v>361</v>
       </c>
       <c r="H77" t="s">
         <v>56</v>
@@ -6696,28 +6810,22 @@
         <v>58</v>
       </c>
       <c r="K77" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="L77" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="M77" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="N77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O77" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="P77" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>588</v>
-      </c>
-      <c r="R77" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78">
@@ -6734,13 +6842,13 @@
         <v>52</v>
       </c>
       <c r="E78" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="F78" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="G78" t="s">
-        <v>323</v>
+        <v>52</v>
       </c>
       <c r="H78" t="s">
         <v>56</v>
@@ -6752,22 +6860,28 @@
         <v>58</v>
       </c>
       <c r="K78" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="L78" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M78" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="N78" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="O78" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="P78" t="s">
-        <v>157</v>
+        <v>106</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>605</v>
+      </c>
+      <c r="R78" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="79">
@@ -6784,13 +6898,13 @@
         <v>52</v>
       </c>
       <c r="E79" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="F79" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="G79" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H79" t="s">
         <v>56</v>
@@ -6802,28 +6916,16 @@
         <v>58</v>
       </c>
       <c r="K79" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="L79" t="s">
+        <v>71</v>
+      </c>
+      <c r="M79" t="s">
+        <v>609</v>
+      </c>
+      <c r="N79" t="s">
         <v>60</v>
-      </c>
-      <c r="M79" t="s">
-        <v>597</v>
-      </c>
-      <c r="N79" t="s">
-        <v>319</v>
-      </c>
-      <c r="O79" t="s">
-        <v>598</v>
-      </c>
-      <c r="P79" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>599</v>
-      </c>
-      <c r="R79" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="80">
@@ -6840,13 +6942,13 @@
         <v>52</v>
       </c>
       <c r="E80" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="F80" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="G80" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="H80" t="s">
         <v>56</v>
@@ -6858,16 +6960,28 @@
         <v>58</v>
       </c>
       <c r="K80" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="L80" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="M80" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="N80" t="s">
-        <v>134</v>
+        <v>115</v>
+      </c>
+      <c r="O80" t="s">
+        <v>614</v>
+      </c>
+      <c r="P80" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>615</v>
+      </c>
+      <c r="R80" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="81">
@@ -6884,13 +6998,13 @@
         <v>52</v>
       </c>
       <c r="E81" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="F81" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="G81" t="s">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="H81" t="s">
         <v>56</v>
@@ -6902,16 +7016,28 @@
         <v>58</v>
       </c>
       <c r="K81" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="L81" t="s">
-        <v>247</v>
+        <v>62</v>
       </c>
       <c r="M81" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="N81" t="s">
-        <v>247</v>
+        <v>95</v>
+      </c>
+      <c r="O81" t="s">
+        <v>620</v>
+      </c>
+      <c r="P81" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>621</v>
+      </c>
+      <c r="R81" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="82">
@@ -6928,13 +7054,13 @@
         <v>52</v>
       </c>
       <c r="E82" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="F82" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="G82" t="s">
-        <v>323</v>
+        <v>58</v>
       </c>
       <c r="H82" t="s">
         <v>56</v>
@@ -6946,34 +7072,16 @@
         <v>58</v>
       </c>
       <c r="K82" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="L82" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M82" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="N82" t="s">
-        <v>77</v>
-      </c>
-      <c r="O82" t="s">
-        <v>612</v>
-      </c>
-      <c r="P82" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>613</v>
-      </c>
-      <c r="R82" t="s">
-        <v>66</v>
-      </c>
-      <c r="S82" t="s">
-        <v>614</v>
-      </c>
-      <c r="T82" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83">
@@ -6990,13 +7098,13 @@
         <v>52</v>
       </c>
       <c r="E83" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="F83" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="G83" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="H83" t="s">
         <v>56</v>
@@ -7008,22 +7116,16 @@
         <v>58</v>
       </c>
       <c r="K83" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="L83" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="M83" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="N83" t="s">
-        <v>134</v>
-      </c>
-      <c r="O83" t="s">
-        <v>619</v>
-      </c>
-      <c r="P83" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84">
@@ -7040,13 +7142,13 @@
         <v>52</v>
       </c>
       <c r="E84" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="F84" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="G84" t="s">
-        <v>52</v>
+        <v>361</v>
       </c>
       <c r="H84" t="s">
         <v>56</v>
@@ -7058,22 +7160,34 @@
         <v>58</v>
       </c>
       <c r="K84" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="L84" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="M84" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="N84" t="s">
-        <v>62</v>
+        <v>310</v>
       </c>
       <c r="O84" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="P84" t="s">
-        <v>116</v>
+        <v>106</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>635</v>
+      </c>
+      <c r="R84" t="s">
+        <v>95</v>
+      </c>
+      <c r="S84" t="s">
+        <v>636</v>
+      </c>
+      <c r="T84" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="85">
@@ -7090,10 +7204,10 @@
         <v>52</v>
       </c>
       <c r="E85" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="F85" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="G85" t="s">
         <v>58</v>
@@ -7108,22 +7222,22 @@
         <v>58</v>
       </c>
       <c r="K85" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="L85" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="M85" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="N85" t="s">
-        <v>242</v>
+        <v>310</v>
       </c>
       <c r="O85" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="P85" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86">
@@ -7140,13 +7254,13 @@
         <v>52</v>
       </c>
       <c r="E86" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="F86" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="G86" t="s">
-        <v>147</v>
+        <v>52</v>
       </c>
       <c r="H86" t="s">
         <v>56</v>
@@ -7158,16 +7272,22 @@
         <v>58</v>
       </c>
       <c r="K86" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="L86" t="s">
-        <v>247</v>
+        <v>102</v>
       </c>
       <c r="M86" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="N86" t="s">
-        <v>247</v>
+        <v>60</v>
+      </c>
+      <c r="O86" t="s">
+        <v>646</v>
+      </c>
+      <c r="P86" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="87">
@@ -7184,10 +7304,10 @@
         <v>52</v>
       </c>
       <c r="E87" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="F87" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
       <c r="G87" t="s">
         <v>58</v>
@@ -7202,28 +7322,22 @@
         <v>58</v>
       </c>
       <c r="K87" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="L87" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="M87" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
       <c r="N87" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="O87" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="P87" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>639</v>
-      </c>
-      <c r="R87" t="s">
-        <v>134</v>
+        <v>216</v>
       </c>
     </row>
     <row r="88">
@@ -7240,13 +7354,13 @@
         <v>52</v>
       </c>
       <c r="E88" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="F88" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="G88" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="H88" t="s">
         <v>56</v>
@@ -7258,34 +7372,16 @@
         <v>58</v>
       </c>
       <c r="K88" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="L88" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="M88" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="N88" t="s">
-        <v>62</v>
-      </c>
-      <c r="O88" t="s">
-        <v>644</v>
-      </c>
-      <c r="P88" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>645</v>
-      </c>
-      <c r="R88" t="s">
-        <v>77</v>
-      </c>
-      <c r="S88" t="s">
-        <v>646</v>
-      </c>
-      <c r="T88" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89">
@@ -7302,13 +7398,13 @@
         <v>52</v>
       </c>
       <c r="E89" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="F89" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="G89" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H89" t="s">
         <v>56</v>
@@ -7320,22 +7416,52 @@
         <v>58</v>
       </c>
       <c r="K89" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="L89" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="M89" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="N89" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O89" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="P89" t="s">
-        <v>242</v>
+        <v>95</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>661</v>
+      </c>
+      <c r="R89" t="s">
+        <v>310</v>
+      </c>
+      <c r="S89" t="s">
+        <v>662</v>
+      </c>
+      <c r="T89" t="s">
+        <v>95</v>
+      </c>
+      <c r="U89" t="s">
+        <v>663</v>
+      </c>
+      <c r="V89" t="s">
+        <v>102</v>
+      </c>
+      <c r="W89" t="s">
+        <v>664</v>
+      </c>
+      <c r="X89" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>665</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="90">
@@ -7352,46 +7478,46 @@
         <v>52</v>
       </c>
       <c r="E90" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="F90" t="s">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="G90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H90" t="s">
+        <v>56</v>
+      </c>
+      <c r="I90" t="s">
+        <v>57</v>
+      </c>
+      <c r="J90" t="s">
+        <v>58</v>
+      </c>
+      <c r="K90" t="s">
+        <v>668</v>
+      </c>
+      <c r="L90" t="s">
+        <v>95</v>
+      </c>
+      <c r="M90" t="s">
+        <v>669</v>
+      </c>
+      <c r="N90" t="s">
+        <v>97</v>
+      </c>
+      <c r="O90" t="s">
+        <v>670</v>
+      </c>
+      <c r="P90" t="s">
         <v>102</v>
       </c>
-      <c r="H90" t="s">
-        <v>56</v>
-      </c>
-      <c r="I90" t="s">
-        <v>57</v>
-      </c>
-      <c r="J90" t="s">
-        <v>58</v>
-      </c>
-      <c r="K90" t="s">
-        <v>654</v>
-      </c>
-      <c r="L90" t="s">
-        <v>655</v>
-      </c>
-      <c r="M90" t="s">
-        <v>656</v>
-      </c>
-      <c r="N90" t="s">
-        <v>68</v>
-      </c>
-      <c r="O90" t="s">
-        <v>657</v>
-      </c>
-      <c r="P90" t="s">
-        <v>62</v>
-      </c>
       <c r="Q90" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="R90" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91">
@@ -7408,13 +7534,13 @@
         <v>52</v>
       </c>
       <c r="E91" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="F91" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="G91" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="H91" t="s">
         <v>56</v>
@@ -7426,16 +7552,34 @@
         <v>58</v>
       </c>
       <c r="K91" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="L91" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="M91" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="N91" t="s">
-        <v>75</v>
+        <v>95</v>
+      </c>
+      <c r="O91" t="s">
+        <v>676</v>
+      </c>
+      <c r="P91" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>677</v>
+      </c>
+      <c r="R91" t="s">
+        <v>310</v>
+      </c>
+      <c r="S91" t="s">
+        <v>678</v>
+      </c>
+      <c r="T91" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="92">
@@ -7452,10 +7596,10 @@
         <v>52</v>
       </c>
       <c r="E92" t="s">
-        <v>663</v>
+        <v>679</v>
       </c>
       <c r="F92" t="s">
-        <v>664</v>
+        <v>680</v>
       </c>
       <c r="G92" t="s">
         <v>52</v>
@@ -7470,22 +7614,22 @@
         <v>58</v>
       </c>
       <c r="K92" t="s">
-        <v>665</v>
+        <v>681</v>
       </c>
       <c r="L92" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="M92" t="s">
-        <v>666</v>
+        <v>682</v>
       </c>
       <c r="N92" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="O92" t="s">
-        <v>667</v>
+        <v>683</v>
       </c>
       <c r="P92" t="s">
-        <v>62</v>
+        <v>216</v>
       </c>
     </row>
     <row r="93">
@@ -7502,13 +7646,13 @@
         <v>52</v>
       </c>
       <c r="E93" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="F93" t="s">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="G93" t="s">
-        <v>323</v>
+        <v>55</v>
       </c>
       <c r="H93" t="s">
         <v>56</v>
@@ -7520,16 +7664,16 @@
         <v>58</v>
       </c>
       <c r="K93" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
       <c r="L93" t="s">
-        <v>281</v>
+        <v>60</v>
       </c>
       <c r="M93" t="s">
-        <v>671</v>
+        <v>687</v>
       </c>
       <c r="N93" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94">
@@ -7546,10 +7690,10 @@
         <v>52</v>
       </c>
       <c r="E94" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="F94" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="G94" t="s">
         <v>52</v>
@@ -7564,22 +7708,22 @@
         <v>58</v>
       </c>
       <c r="K94" t="s">
-        <v>674</v>
+        <v>690</v>
       </c>
       <c r="L94" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="M94" t="s">
-        <v>675</v>
+        <v>691</v>
       </c>
       <c r="N94" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="O94" t="s">
-        <v>676</v>
+        <v>692</v>
       </c>
       <c r="P94" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95">
@@ -7596,13 +7740,13 @@
         <v>52</v>
       </c>
       <c r="E95" t="s">
-        <v>677</v>
+        <v>693</v>
       </c>
       <c r="F95" t="s">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="G95" t="s">
-        <v>52</v>
+        <v>361</v>
       </c>
       <c r="H95" t="s">
         <v>56</v>
@@ -7614,22 +7758,16 @@
         <v>58</v>
       </c>
       <c r="K95" t="s">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="L95" t="s">
-        <v>680</v>
+        <v>331</v>
       </c>
       <c r="M95" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="N95" t="s">
-        <v>281</v>
-      </c>
-      <c r="O95" t="s">
-        <v>682</v>
-      </c>
-      <c r="P95" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96">
@@ -7646,10 +7784,10 @@
         <v>52</v>
       </c>
       <c r="E96" t="s">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="F96" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="G96" t="s">
         <v>52</v>
@@ -7664,16 +7802,22 @@
         <v>58</v>
       </c>
       <c r="K96" t="s">
-        <v>685</v>
+        <v>699</v>
       </c>
       <c r="L96" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="M96" t="s">
-        <v>686</v>
+        <v>700</v>
       </c>
       <c r="N96" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="O96" t="s">
+        <v>701</v>
+      </c>
+      <c r="P96" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="97">
@@ -7690,13 +7834,13 @@
         <v>52</v>
       </c>
       <c r="E97" t="s">
-        <v>687</v>
+        <v>702</v>
       </c>
       <c r="F97" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="G97" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H97" t="s">
         <v>56</v>
@@ -7708,34 +7852,66 @@
         <v>58</v>
       </c>
       <c r="K97" t="s">
-        <v>689</v>
+        <v>704</v>
       </c>
       <c r="L97" t="s">
-        <v>62</v>
+        <v>705</v>
       </c>
       <c r="M97" t="s">
-        <v>690</v>
+        <v>706</v>
       </c>
       <c r="N97" t="s">
-        <v>231</v>
+        <v>106</v>
       </c>
       <c r="O97" t="s">
-        <v>691</v>
+        <v>707</v>
       </c>
       <c r="P97" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>692</v>
-      </c>
-      <c r="R97" t="s">
-        <v>116</v>
-      </c>
-      <c r="S97" t="s">
-        <v>693</v>
-      </c>
-      <c r="T97" t="s">
-        <v>134</v>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>50</v>
+      </c>
+      <c r="C98" t="s">
+        <v>51</v>
+      </c>
+      <c r="D98" t="s">
+        <v>52</v>
+      </c>
+      <c r="E98" t="s">
+        <v>708</v>
+      </c>
+      <c r="F98" t="s">
+        <v>709</v>
+      </c>
+      <c r="G98" t="s">
+        <v>52</v>
+      </c>
+      <c r="H98" t="s">
+        <v>56</v>
+      </c>
+      <c r="I98" t="s">
+        <v>57</v>
+      </c>
+      <c r="J98" t="s">
+        <v>58</v>
+      </c>
+      <c r="K98" t="s">
+        <v>710</v>
+      </c>
+      <c r="L98" t="s">
+        <v>117</v>
+      </c>
+      <c r="M98" t="s">
+        <v>711</v>
+      </c>
+      <c r="N98" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
